--- a/template/canada_covid19/exampleInput/validTestData.xlsx
+++ b/template/canada_covid19/exampleInput/validTestData.xlsx
@@ -1091,7 +1091,7 @@
         <v>1191 Isabella Street, Unit 70, Campbellford, ON K0L 1L0</v>
       </c>
       <c r="N3" t="str">
-        <v>Canadore College</v>
+        <v>Canadore College</v>
       </c>
       <c r="O3" t="str">
         <v>authorativefigure@nwtha.ca</v>
@@ -1250,7 +1250,7 @@
         <v>Exposure setting - in the same common room.</v>
       </c>
       <c r="BO3" t="str">
-        <v>Cluster investigation</v>
+        <v>Cluster investigation</v>
       </c>
       <c r="BP3" t="str">
         <v>Timor-Leste-Handrail-860-1</v>
@@ -1426,7 +1426,7 @@
         <v>0000 Bloor Street West, Toronto, Ontario, M6P 1B1</v>
       </c>
       <c r="N4" t="str">
-        <v>Alberta ProvLab North (APLN)</v>
+        <v>Alberta ProvLab North (APLN)</v>
       </c>
       <c r="O4" t="str">
         <v>ab3@cdcab.ca</v>
@@ -1585,7 +1585,7 @@
         <v>Host role - Other: Gardener</v>
       </c>
       <c r="BO4" t="str">
-        <v>Research</v>
+        <v>Diagnostic testing</v>
       </c>
       <c r="BP4" t="str">
         <v>NewBrunswick-Severeacuterespiratoryvirus2-416;3</v>
@@ -1761,7 +1761,7 @@
         <v xml:space="preserve">655 West 12th Avenue, Vancouver, BC V5Z 4R4 Canada </v>
       </c>
       <c r="N5" t="str">
-        <v>New Brunswick - Vitalité Health Network</v>
+        <v>New Brunswick - Vitalité Health Network</v>
       </c>
       <c r="O5" t="str">
         <v>Heidi-k@brha.ca</v>
@@ -1920,7 +1920,7 @@
         <v>Direct contact with COVID-19 positive visitor at place of wokr.</v>
       </c>
       <c r="BO5" t="str">
-        <v>Diagnostic testing</v>
+        <v>Research</v>
       </c>
       <c r="BP5" t="str">
         <v>ABC-6543211</v>
@@ -2096,7 +2096,7 @@
         <v>Health Sciences Centre, Prince Philip Drive, St. John's, NL  A1B 3V6</v>
       </c>
       <c r="N6" t="str">
-        <v>Manitoba Cadham Provincial Laboratory</v>
+        <v>Manitoba Cadham Provincial Laboratory</v>
       </c>
       <c r="O6" t="str">
         <v>someone@wrha.ca</v>
@@ -2114,7 +2114,7 @@
         <v>Canada</v>
       </c>
       <c r="T6" t="str">
-        <v>Newfoundland and Labrador</v>
+        <v>Newfoundland and Labrador</v>
       </c>
       <c r="U6" t="str">
         <v>Stephenville</v>
@@ -2213,7 +2213,7 @@
         <v>Confusion; Irritability; Asthenia (general weakness); Cough</v>
       </c>
       <c r="BA6" t="str">
-        <v>Hypertension (high blood pressure); Postpartum (≤6 weeks)</v>
+        <v>Hypertension (high blood pressure); Postpartum (≤6 weeks)</v>
       </c>
       <c r="BB6" t="str">
         <v>COVID-19 associated ARDS (CARDS); Cardiac injury; Cardiac arrest</v>
@@ -2255,7 +2255,7 @@
         <v>Exposure setting - visited personal home for work duty.</v>
       </c>
       <c r="BO6" t="str">
-        <v>Missing</v>
+        <v>Surveillance testing</v>
       </c>
       <c r="BP6" t="str">
         <v>Newfoundland_Bronchoscope_IskH_007</v>
@@ -2431,7 +2431,7 @@
         <v>299 Victoria St., Prince George, BC  V2L 5B8</v>
       </c>
       <c r="N7" t="str">
-        <v>Public Health Ontario (PHO)</v>
+        <v>Public Health Ontario (PHO)</v>
       </c>
       <c r="O7" t="str">
         <v>rSmith@gmail.com</v>
@@ -2545,14 +2545,11 @@
         <v>2020-02-13</v>
       </c>
       <c r="AZ7" t="str">
-        <v>Parageusia (distorted sense of taste); Nonproductive cough (dry cough); Dyspnea (breathing difficulty); Encephalitis (brain inflammation); Fever (≥38°C)</v>
+        <v>Parageusia (distorted sense of taste); Nonproductive cough (dry cough); Dyspnea (breathing difficulty); Encephalitis (brain inflammation); Fever (≥38°C)</v>
       </c>
       <c r="BA7" t="str">
         <v>Lupus; Sickle cell disease</v>
       </c>
-      <c r="BB7" t="str">
-        <v/>
-      </c>
       <c r="BC7" t="str">
         <v>Canada</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>Attended convention where multiple people where later diagnosed with COVID-19.</v>
       </c>
       <c r="BO7" t="str">
-        <v>Diagnostic testing</v>
+        <v>Viral passage experiment</v>
       </c>
       <c r="BP7" t="str">
         <v>HospitalMissing555-22</v>

--- a/template/canada_covid19/exampleInput/validTestData.xlsx
+++ b/template/canada_covid19/exampleInput/validTestData.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DG7"/>
+  <dimension ref="A1:DH7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,11 +544,11 @@
         <v/>
       </c>
       <c r="BC1" t="str">
+        <v/>
+      </c>
+      <c r="BD1" t="str">
         <v>Host exposure information</v>
       </c>
-      <c r="BD1" t="str">
-        <v/>
-      </c>
       <c r="BE1" t="str">
         <v/>
       </c>
@@ -580,11 +580,11 @@
         <v/>
       </c>
       <c r="BO1" t="str">
+        <v/>
+      </c>
+      <c r="BP1" t="str">
         <v>Sequencing</v>
       </c>
-      <c r="BP1" t="str">
-        <v/>
-      </c>
       <c r="BQ1" t="str">
         <v/>
       </c>
@@ -613,11 +613,11 @@
         <v/>
       </c>
       <c r="BZ1" t="str">
+        <v/>
+      </c>
+      <c r="CA1" t="str">
         <v>Bioinformatics and QC metrics</v>
       </c>
-      <c r="CA1" t="str">
-        <v/>
-      </c>
       <c r="CB1" t="str">
         <v/>
       </c>
@@ -691,11 +691,11 @@
         <v/>
       </c>
       <c r="CZ1" t="str">
+        <v/>
+      </c>
+      <c r="DA1" t="str">
         <v>Pathogen diagnostic testing</v>
       </c>
-      <c r="DA1" t="str">
-        <v/>
-      </c>
       <c r="DB1" t="str">
         <v/>
       </c>
@@ -709,9 +709,12 @@
         <v/>
       </c>
       <c r="DF1" t="str">
+        <v/>
+      </c>
+      <c r="DG1" t="str">
         <v>Contributor acknowledgement</v>
       </c>
-      <c r="DG1" t="str">
+      <c r="DH1" t="str">
         <v/>
       </c>
     </row>
@@ -855,198 +858,201 @@
         <v>host age</v>
       </c>
       <c r="AU2" t="str">
+        <v>host age unit</v>
+      </c>
+      <c r="AV2" t="str">
         <v>host age bin</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="AW2" t="str">
         <v>host gender</v>
       </c>
-      <c r="AW2" t="str">
+      <c r="AX2" t="str">
         <v>host origin geo_loc name (country)</v>
       </c>
-      <c r="AX2" t="str">
+      <c r="AY2" t="str">
         <v>host subject ID</v>
       </c>
-      <c r="AY2" t="str">
+      <c r="AZ2" t="str">
         <v>symptom onset date</v>
       </c>
-      <c r="AZ2" t="str">
+      <c r="BA2" t="str">
         <v>signs and symptoms</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BB2" t="str">
         <v>pre-existing conditions and risk factors</v>
       </c>
-      <c r="BB2" t="str">
+      <c r="BC2" t="str">
         <v>complications</v>
       </c>
-      <c r="BC2" t="str">
+      <c r="BD2" t="str">
         <v>location of exposure geo_loc name (country)</v>
       </c>
-      <c r="BD2" t="str">
+      <c r="BE2" t="str">
         <v>destination of most recent travel (city)</v>
       </c>
-      <c r="BE2" t="str">
+      <c r="BF2" t="str">
         <v>destination of most recent travel (state/province/territory)</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BG2" t="str">
         <v>destination of most recent travel (country)</v>
       </c>
-      <c r="BG2" t="str">
+      <c r="BH2" t="str">
         <v>most recent travel departure date</v>
       </c>
-      <c r="BH2" t="str">
+      <c r="BI2" t="str">
         <v>most recent travel return date</v>
       </c>
-      <c r="BI2" t="str">
+      <c r="BJ2" t="str">
         <v>travel history</v>
       </c>
-      <c r="BJ2" t="str">
+      <c r="BK2" t="str">
         <v>exposure event</v>
       </c>
-      <c r="BK2" t="str">
+      <c r="BL2" t="str">
         <v>direct/indirect exposure</v>
       </c>
-      <c r="BL2" t="str">
+      <c r="BM2" t="str">
         <v>host role</v>
       </c>
-      <c r="BM2" t="str">
+      <c r="BN2" t="str">
         <v>exposure setting</v>
       </c>
-      <c r="BN2" t="str">
+      <c r="BO2" t="str">
         <v>exposure details</v>
       </c>
-      <c r="BO2" t="str">
+      <c r="BP2" t="str">
         <v>purpose of sequencing</v>
       </c>
-      <c r="BP2" t="str">
+      <c r="BQ2" t="str">
         <v>library ID</v>
       </c>
-      <c r="BQ2" t="str">
+      <c r="BR2" t="str">
         <v>library insert size</v>
       </c>
-      <c r="BR2" t="str">
+      <c r="BS2" t="str">
         <v>library preparation method</v>
       </c>
-      <c r="BS2" t="str">
+      <c r="BT2" t="str">
         <v>MinIon barcode</v>
       </c>
-      <c r="BT2" t="str">
+      <c r="BU2" t="str">
         <v>sequencing instrument</v>
       </c>
-      <c r="BU2" t="str">
+      <c r="BV2" t="str">
         <v>sequencing protocol name</v>
       </c>
-      <c r="BV2" t="str">
+      <c r="BW2" t="str">
         <v>sequencing protocol source</v>
       </c>
-      <c r="BW2" t="str">
+      <c r="BX2" t="str">
         <v>sequencing kit number</v>
       </c>
-      <c r="BX2" t="str">
+      <c r="BY2" t="str">
         <v>amplicon pcr primers filename</v>
       </c>
-      <c r="BY2" t="str">
+      <c r="BZ2" t="str">
         <v>sample sequenced date</v>
       </c>
-      <c r="BZ2" t="str">
+      <c r="CA2" t="str">
         <v>raw sequence data processing</v>
       </c>
-      <c r="CA2" t="str">
+      <c r="CB2" t="str">
         <v>sequencing depth (average)</v>
       </c>
-      <c r="CB2" t="str">
+      <c r="CC2" t="str">
         <v>assembly name</v>
       </c>
-      <c r="CC2" t="str">
+      <c r="CD2" t="str">
         <v>assembly method</v>
       </c>
-      <c r="CD2" t="str">
+      <c r="CE2" t="str">
         <v>assembly coverage breadth</v>
       </c>
-      <c r="CE2" t="str">
+      <c r="CF2" t="str">
         <v>assembly coverage depth</v>
       </c>
-      <c r="CF2" t="str">
+      <c r="CG2" t="str">
         <v>r1 fastq filename</v>
       </c>
-      <c r="CG2" t="str">
+      <c r="CH2" t="str">
         <v>r2 fastq filename</v>
       </c>
-      <c r="CH2" t="str">
+      <c r="CI2" t="str">
         <v>r1 fastq filepath</v>
       </c>
-      <c r="CI2" t="str">
+      <c r="CJ2" t="str">
         <v>r2 fastq filepath</v>
       </c>
-      <c r="CJ2" t="str">
+      <c r="CK2" t="str">
         <v>fast5 filename</v>
       </c>
-      <c r="CK2" t="str">
+      <c r="CL2" t="str">
         <v>fast5 filepath</v>
       </c>
-      <c r="CL2" t="str">
+      <c r="CM2" t="str">
         <v>fasta filename</v>
       </c>
-      <c r="CM2" t="str">
+      <c r="CN2" t="str">
         <v>fasta filepath</v>
       </c>
-      <c r="CN2" t="str">
+      <c r="CO2" t="str">
         <v>number base pairs</v>
       </c>
-      <c r="CO2" t="str">
+      <c r="CP2" t="str">
         <v>consensus genome length</v>
       </c>
-      <c r="CP2" t="str">
+      <c r="CQ2" t="str">
         <v>mean contig length</v>
       </c>
-      <c r="CQ2" t="str">
+      <c r="CR2" t="str">
         <v>N50</v>
       </c>
-      <c r="CR2" t="str">
+      <c r="CS2" t="str">
         <v>Ns per 100 kbp</v>
       </c>
-      <c r="CS2" t="str">
+      <c r="CT2" t="str">
         <v>reference genome accession</v>
       </c>
-      <c r="CT2" t="str">
+      <c r="CU2" t="str">
         <v>consensus sequence ID</v>
       </c>
-      <c r="CU2" t="str">
+      <c r="CV2" t="str">
         <v>consensus sequence method</v>
       </c>
-      <c r="CV2" t="str">
+      <c r="CW2" t="str">
         <v>consensus sequence filename</v>
       </c>
-      <c r="CW2" t="str">
+      <c r="CX2" t="str">
         <v>consensus sequence filepath</v>
       </c>
-      <c r="CX2" t="str">
+      <c r="CY2" t="str">
         <v>annotation feature table filename</v>
       </c>
-      <c r="CY2" t="str">
+      <c r="CZ2" t="str">
         <v>bioinformatics protocol</v>
       </c>
-      <c r="CZ2" t="str">
+      <c r="DA2" t="str">
         <v>gene name 1</v>
       </c>
-      <c r="DA2" t="str">
+      <c r="DB2" t="str">
         <v>diagnostic pcr protocol 1</v>
       </c>
-      <c r="DB2" t="str">
+      <c r="DC2" t="str">
         <v>diagnostic pcr Ct value 1</v>
       </c>
-      <c r="DC2" t="str">
+      <c r="DD2" t="str">
         <v>gene name 2</v>
       </c>
-      <c r="DD2" t="str">
+      <c r="DE2" t="str">
         <v>diagnostic pcr protocol 2</v>
       </c>
-      <c r="DE2" t="str">
+      <c r="DF2" t="str">
         <v>diagnostic pcr Ct value 2</v>
       </c>
-      <c r="DF2" t="str">
+      <c r="DG2" t="str">
         <v>authors</v>
       </c>
-      <c r="DG2" t="str">
+      <c r="DH2" t="str">
         <v>DataHarmonizer provenance</v>
       </c>
     </row>
@@ -1190,198 +1196,201 @@
         <v>76</v>
       </c>
       <c r="AU3" t="str">
+        <v/>
+      </c>
+      <c r="AV3" t="str">
         <v>70 - 79</v>
       </c>
-      <c r="AV3" t="str">
+      <c r="AW3" t="str">
         <v>Female</v>
       </c>
-      <c r="AW3" t="str">
+      <c r="AX3" t="str">
         <v>United States of America</v>
       </c>
-      <c r="AX3" t="str">
+      <c r="AY3" t="str">
         <v>nSQu_4</v>
       </c>
-      <c r="AY3" t="str">
+      <c r="AZ3" t="str">
         <v>2020-03-05</v>
       </c>
-      <c r="AZ3" t="str">
+      <c r="BA3" t="str">
         <v>Ageusia (complete loss of taste); Conjunctivitis (pink eye); Cough; Headache; Hypotension (low blood pressure)</v>
       </c>
-      <c r="BA3" t="str">
+      <c r="BB3" t="str">
         <v>Age 60+; Metastatic disease; Smoking</v>
       </c>
-      <c r="BB3" t="str">
+      <c r="BC3" t="str">
         <v>Acute respiratory failure; Guillain-Barré syndrome</v>
       </c>
-      <c r="BC3" t="str">
+      <c r="BD3" t="str">
         <v>United States of America</v>
       </c>
-      <c r="BD3" t="str">
+      <c r="BE3" t="str">
         <v>New York City</v>
       </c>
-      <c r="BE3" t="str">
+      <c r="BF3" t="str">
         <v>State of New York</v>
       </c>
-      <c r="BF3" t="str">
+      <c r="BG3" t="str">
         <v>United States of America</v>
       </c>
-      <c r="BG3" t="str">
+      <c r="BH3" t="str">
         <v>2020-07-14</v>
       </c>
-      <c r="BH3" t="str">
+      <c r="BI3" t="str">
         <v>2020-07-23</v>
       </c>
-      <c r="BI3" t="str">
+      <c r="BJ3" t="str">
         <v>Canada, Yellowknife; Canada, Fort Providence: USA, Bismarck</v>
       </c>
-      <c r="BJ3" t="str">
+      <c r="BK3" t="str">
         <v>Missing</v>
       </c>
-      <c r="BK3" t="str">
+      <c r="BL3" t="str">
         <v>Indirect</v>
       </c>
-      <c r="BL3" t="str">
+      <c r="BM3" t="str">
         <v>Patient</v>
       </c>
-      <c r="BM3" t="str">
+      <c r="BN3" t="str">
         <v>Patient Contact</v>
       </c>
-      <c r="BN3" t="str">
+      <c r="BO3" t="str">
         <v>Exposure setting - in the same common room.</v>
       </c>
-      <c r="BO3" t="str">
+      <c r="BP3" t="str">
         <v>Cluster investigation</v>
       </c>
-      <c r="BP3" t="str">
+      <c r="BQ3" t="str">
         <v>Timor-Leste-Handrail-860-1</v>
       </c>
-      <c r="BQ3" t="str">
+      <c r="BR3" t="str">
         <v>300</v>
       </c>
-      <c r="BR3" t="str">
+      <c r="BS3" t="str">
         <v>Nextera XT</v>
       </c>
-      <c r="BS3" t="str">
+      <c r="BT3" t="str">
         <v>3225848155</v>
       </c>
-      <c r="BT3" t="str">
+      <c r="BU3" t="str">
         <v>DNBSEQ-G50</v>
       </c>
-      <c r="BU3" t="str">
+      <c r="BV3" t="str">
         <v>NGS protocol v. 12</v>
       </c>
-      <c r="BV3" t="str">
+      <c r="BW3" t="str">
         <v>NGS Libraries</v>
       </c>
-      <c r="BW3" t="str">
+      <c r="BX3" t="str">
         <v>NG5T1LK633</v>
       </c>
-      <c r="BX3" t="str">
+      <c r="BY3" t="str">
         <v>Timor-Leste860_2020-02.txt</v>
       </c>
-      <c r="BY3" t="str">
+      <c r="BZ3" t="str">
         <v>2020-09-01</v>
       </c>
-      <c r="BZ3" t="str">
+      <c r="CA3" t="str">
         <v>Porechop v. 0.2.3</v>
       </c>
-      <c r="CA3" t="str">
+      <c r="CB3" t="str">
         <v>99x</v>
       </c>
-      <c r="CB3" t="str">
+      <c r="CC3" t="str">
         <v>timor-leste-handrail-86039assembly.fasta</v>
       </c>
-      <c r="CC3" t="str">
+      <c r="CD3" t="str">
         <v>Shovil</v>
       </c>
-      <c r="CD3" t="str">
+      <c r="CE3" t="str">
         <v>91%</v>
       </c>
-      <c r="CE3" t="str">
+      <c r="CF3" t="str">
         <v>17x</v>
       </c>
-      <c r="CF3" t="str">
+      <c r="CG3" t="str">
         <v>Timor-Leste860_S1_L001_R1_001.fastq.gz</v>
       </c>
-      <c r="CG3" t="str">
+      <c r="CH3" t="str">
         <v>Timor-Leste860_S1_L001_R2_001.fastq.gz</v>
       </c>
-      <c r="CH3" t="str">
+      <c r="CI3" t="str">
         <v>/Users/Matthew James/Documents/I./stay dark.fastq.gz</v>
       </c>
-      <c r="CI3" t="str">
+      <c r="CJ3" t="str">
         <v>/Users/Heather Gonzalez/Downloads/Development$/</v>
       </c>
-      <c r="CJ3" t="str">
+      <c r="CK3" t="str">
         <v>Timor-Leste860_2020-02_batch1a.fast5</v>
       </c>
-      <c r="CK3" t="str">
+      <c r="CL3" t="str">
         <v>/Users/Snyder/Downloads/Concern/.fast5</v>
       </c>
-      <c r="CL3" t="str">
+      <c r="CM3" t="str">
         <v>Timor-Leste860_2020-02_batch1a.fasta</v>
       </c>
-      <c r="CM3" t="str">
+      <c r="CN3" t="str">
         <v>/Users/Phillip Barry/Desktop/</v>
       </c>
-      <c r="CN3" t="str">
+      <c r="CO3" t="str">
         <v>185272</v>
       </c>
-      <c r="CO3" t="str">
+      <c r="CP3" t="str">
         <v>2566</v>
       </c>
-      <c r="CP3" t="str">
+      <c r="CQ3" t="str">
         <v>21180</v>
       </c>
-      <c r="CQ3" t="str">
+      <c r="CR3" t="str">
         <v>601</v>
       </c>
-      <c r="CR3" t="str">
+      <c r="CS3" t="str">
         <v>865.61</v>
       </c>
-      <c r="CS3" t="str">
+      <c r="CT3" t="str">
         <v>MT_419846.1</v>
       </c>
-      <c r="CT3" t="str">
+      <c r="CU3" t="str">
         <v>SARS-CoV-2_MT3989</v>
       </c>
-      <c r="CU3" t="str">
+      <c r="CV3" t="str">
         <v>CASAVA v. 1.8.2</v>
       </c>
-      <c r="CV3" t="str">
+      <c r="CW3" t="str">
         <v>SARS-CoV-2_MT3989.fasta</v>
       </c>
-      <c r="CW3" t="str">
+      <c r="CX3" t="str">
         <v>/Users/Jacqueline/Desktop/Work/Seq/Consensus/</v>
       </c>
-      <c r="CX3" t="str">
+      <c r="CY3" t="str">
         <v>Timor-Leste860_2020-02_Annotation-Features.tbl</v>
       </c>
-      <c r="CY3" t="str">
+      <c r="CZ3" t="str">
         <v>Whole-exome-sequencing-and-bioinformatics-analysis-jhscj6e</v>
       </c>
-      <c r="CZ3" t="str">
+      <c r="DA3" t="str">
         <v>nsp12 (RdRp)</v>
       </c>
-      <c r="DA3" t="str">
+      <c r="DB3" t="str">
         <v>Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) RdRp nested RT-PCR V.2</v>
       </c>
-      <c r="DB3" t="str">
+      <c r="DC3" t="str">
         <v>13</v>
       </c>
-      <c r="DC3" t="str">
+      <c r="DD3" t="str">
         <v>ORF7b (ns7b)</v>
       </c>
-      <c r="DD3" t="str">
+      <c r="DE3" t="str">
         <v>SARS-CoV-2 RT-PCR ORF7b 2020 (Wuhan-ORF1ab; 2019-nCoV-related test version 0.3.0</v>
       </c>
-      <c r="DE3" t="str">
+      <c r="DF3" t="str">
         <v>6</v>
       </c>
-      <c r="DF3" t="str">
+      <c r="DG3" t="str">
         <v>Diana Tucker, Ashley McIntyre, Sandra Smith, Christopher Brown, Robert North, Christopher Green</v>
       </c>
-      <c r="DG3" t="str">
+      <c r="DH3" t="str">
         <v>DataHarmonizer: v0.13.3</v>
       </c>
     </row>
@@ -1525,198 +1534,201 @@
         <v>89</v>
       </c>
       <c r="AU4" t="str">
+        <v/>
+      </c>
+      <c r="AV4" t="str">
         <v>80 - 89</v>
       </c>
-      <c r="AV4" t="str">
+      <c r="AW4" t="str">
         <v>Non-binary gender</v>
       </c>
-      <c r="AW4" t="str">
+      <c r="AX4" t="str">
         <v>Bosnia and Herzegovina</v>
       </c>
-      <c r="AX4" t="str">
+      <c r="AY4" t="str">
         <v>rblyp6</v>
       </c>
-      <c r="AY4" t="str">
+      <c r="AZ4" t="str">
         <v>2020-03-08</v>
       </c>
-      <c r="AZ4" t="str">
+      <c r="BA4" t="str">
         <v>Confusion; Chills (sudden cold sensation); Cough; Arthralgia (painful joints); Myalgia (muscle pain); Pharyngitis (sore throat)</v>
       </c>
-      <c r="BA4" t="str">
+      <c r="BB4" t="str">
         <v>Bone marrow failure; Metastatic disease; Cardiac disease</v>
       </c>
-      <c r="BB4" t="str">
+      <c r="BC4" t="str">
         <v>Kawasaki disease</v>
       </c>
-      <c r="BC4" t="str">
+      <c r="BD4" t="str">
         <v>Japan</v>
       </c>
-      <c r="BD4" t="str">
+      <c r="BE4" t="str">
         <v>Montreal</v>
       </c>
-      <c r="BE4" t="str">
+      <c r="BF4" t="str">
         <v>Quebec</v>
       </c>
-      <c r="BF4" t="str">
+      <c r="BG4" t="str">
         <v>Canada</v>
       </c>
-      <c r="BG4" t="str">
+      <c r="BH4" t="str">
         <v>2020-05-24</v>
       </c>
-      <c r="BH4" t="str">
+      <c r="BI4" t="str">
         <v>2020-05-02</v>
       </c>
-      <c r="BI4" t="str">
+      <c r="BJ4" t="str">
         <v>Canada, Alberta; Japan, Tokyo</v>
       </c>
-      <c r="BJ4" t="str">
+      <c r="BK4" t="str">
         <v>Community Event</v>
       </c>
-      <c r="BK4" t="str">
+      <c r="BL4" t="str">
         <v>Direct</v>
       </c>
-      <c r="BL4" t="str">
+      <c r="BM4" t="str">
         <v>Other</v>
       </c>
-      <c r="BM4" t="str">
+      <c r="BN4" t="str">
         <v>First Nations Reserve</v>
       </c>
-      <c r="BN4" t="str">
+      <c r="BO4" t="str">
         <v>Host role - Other: Gardener</v>
       </c>
-      <c r="BO4" t="str">
+      <c r="BP4" t="str">
         <v>Diagnostic testing</v>
       </c>
-      <c r="BP4" t="str">
+      <c r="BQ4" t="str">
         <v>NewBrunswick-Severeacuterespiratoryvirus2-416;3</v>
       </c>
-      <c r="BQ4" t="str">
+      <c r="BR4" t="str">
         <v>200</v>
       </c>
-      <c r="BR4" t="str">
+      <c r="BS4" t="str">
         <v>NEBNext Ultra II</v>
       </c>
-      <c r="BS4" t="str">
+      <c r="BT4" t="str">
         <v>5199601997</v>
       </c>
-      <c r="BT4" t="str">
+      <c r="BU4" t="str">
         <v>HiSeq X Ten</v>
       </c>
-      <c r="BU4" t="str">
+      <c r="BV4" t="str">
         <v>Seq System Protocol v. 0.1.4</v>
       </c>
-      <c r="BV4" t="str">
+      <c r="BW4" t="str">
         <v>BFX-UT_ARTIC_Illumina V 10.4</v>
       </c>
-      <c r="BW4" t="str">
+      <c r="BX4" t="str">
         <v>BDI5MLQMCI6</v>
       </c>
-      <c r="BX4" t="str">
+      <c r="BY4" t="str">
         <v>NB_SARSCoV2-416_2020ampli.txt</v>
       </c>
-      <c r="BY4" t="str">
+      <c r="BZ4" t="str">
         <v>2020-10-20</v>
       </c>
-      <c r="BZ4" t="str">
+      <c r="CA4" t="str">
         <v>Deepbinner v. 0.2.0</v>
       </c>
-      <c r="CA4" t="str">
+      <c r="CB4" t="str">
         <v>19x</v>
       </c>
-      <c r="CB4" t="str">
+      <c r="CC4" t="str">
         <v>newbrunswick-severeacuterespiratoryvirus2-41628assembly.fasta</v>
       </c>
-      <c r="CC4" t="str">
+      <c r="CD4" t="str">
         <v>Canu</v>
       </c>
-      <c r="CD4" t="str">
+      <c r="CE4" t="str">
         <v>20%</v>
       </c>
-      <c r="CE4" t="str">
+      <c r="CF4" t="str">
         <v>15x</v>
       </c>
-      <c r="CF4" t="str">
+      <c r="CG4" t="str">
         <v>NB_SARSCoV2-416_S2_L020_R1_001.fasta.gz</v>
       </c>
-      <c r="CG4" t="str">
+      <c r="CH4" t="str">
         <v>NB_SARSCoV2-416_S2_L020_R2_001.fasta.gz</v>
       </c>
-      <c r="CH4" t="str">
+      <c r="CI4" t="str">
         <v>/Users/Robert/Downloads/unit-/where item.fastq.gz</v>
       </c>
-      <c r="CI4" t="str">
+      <c r="CJ4" t="str">
         <v>/Users/Baker/Desktop/"/town-small-consider-wife.fastq.gz</v>
       </c>
-      <c r="CJ4" t="str">
+      <c r="CK4" t="str">
         <v>NB_SARSCoV2-416_2020-seq.fast5</v>
       </c>
-      <c r="CK4" t="str">
+      <c r="CL4" t="str">
         <v>/Users/Kim/Google Drive/his/local-method.fast5</v>
       </c>
-      <c r="CL4" t="str">
+      <c r="CM4" t="str">
         <v>NB_SARSCoV2-416_2020-seq.fasta</v>
       </c>
-      <c r="CM4" t="str">
+      <c r="CN4" t="str">
         <v>/Users/Stephanie/Downloads/NB_SARSCoV2-416_2020-seq.fasta</v>
       </c>
-      <c r="CN4" t="str">
+      <c r="CO4" t="str">
         <v>219669</v>
       </c>
-      <c r="CO4" t="str">
+      <c r="CP4" t="str">
         <v>3787</v>
       </c>
-      <c r="CP4" t="str">
+      <c r="CQ4" t="str">
         <v>12664</v>
       </c>
-      <c r="CQ4" t="str">
+      <c r="CR4" t="str">
         <v>1214</v>
       </c>
-      <c r="CR4" t="str">
+      <c r="CS4" t="str">
         <v>831.4</v>
       </c>
-      <c r="CS4" t="str">
+      <c r="CT4" t="str">
         <v>NC_045512.1</v>
       </c>
-      <c r="CT4" t="str">
+      <c r="CU4" t="str">
         <v>ConsensusSeq_U0K724</v>
       </c>
-      <c r="CU4" t="str">
+      <c r="CV4" t="str">
         <v>Carthagene v. 1.2</v>
       </c>
-      <c r="CV4" t="str">
+      <c r="CW4" t="str">
         <v>ConsensusSeq_U0K724.fasta</v>
       </c>
-      <c r="CW4" t="str">
+      <c r="CX4" t="str">
         <v>/Users/Haley/Google Drive/ConsensusSeq_U0K724.fasta</v>
       </c>
-      <c r="CX4" t="str">
+      <c r="CY4" t="str">
         <v>NB_SARSCoV2-416_2020-seq-AFT.tbl</v>
       </c>
-      <c r="CY4" t="str">
+      <c r="CZ4" t="str">
         <v>Assessing sequence quality in galaxytrakr v 1.2</v>
       </c>
-      <c r="CZ4" t="str">
+      <c r="DA4" t="str">
         <v>ORF7a</v>
       </c>
-      <c r="DA4" t="str">
+      <c r="DB4" t="str">
         <v>AllTheTestingPCRing-orf7a v. 2</v>
       </c>
-      <c r="DB4" t="str">
+      <c r="DC4" t="str">
         <v>37</v>
       </c>
-      <c r="DC4" t="str">
+      <c r="DD4" t="str">
         <v>Spike (orf2)</v>
       </c>
-      <c r="DD4" t="str">
+      <c r="DE4" t="str">
         <v>2019-nCoV ORF2-gene-v.10</v>
       </c>
-      <c r="DE4" t="str">
+      <c r="DF4" t="str">
         <v>36</v>
       </c>
-      <c r="DF4" t="str">
+      <c r="DG4" t="str">
         <v>Clyde D. Flores, Tami L. Logan, Amelia M. Foster</v>
       </c>
-      <c r="DG4" t="str">
+      <c r="DH4" t="str">
         <v>DataHarmonizer: v0.13.3</v>
       </c>
     </row>
@@ -1860,198 +1872,201 @@
         <v>61</v>
       </c>
       <c r="AU5" t="str">
+        <v/>
+      </c>
+      <c r="AV5" t="str">
         <v>60 - 69</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="AW5" t="str">
         <v>Undeclared</v>
       </c>
-      <c r="AW5" t="str">
+      <c r="AX5" t="str">
         <v>Kingman Reef</v>
       </c>
-      <c r="AX5" t="str">
+      <c r="AY5" t="str">
         <v>GeV:6</v>
       </c>
-      <c r="AY5" t="str">
+      <c r="AZ5" t="str">
         <v>2020-01-10</v>
       </c>
-      <c r="AZ5" t="str">
+      <c r="BA5" t="str">
         <v>Dyspnea (breathing difficulty); Malaise (general discomfort/unease); Rhinorrhea (runny nose); Tachypnea (accelerated respiratory rate); Vomiting (throwing up)</v>
       </c>
-      <c r="BA5" t="str">
+      <c r="BB5" t="str">
         <v>Anemia</v>
       </c>
-      <c r="BB5" t="str">
+      <c r="BC5" t="str">
         <v>Abnormal blood oxygen level</v>
       </c>
-      <c r="BC5" t="str">
+      <c r="BD5" t="str">
         <v>Canada</v>
       </c>
-      <c r="BD5" t="str">
+      <c r="BE5" t="str">
         <v>Dublin</v>
       </c>
-      <c r="BE5" t="str">
+      <c r="BF5" t="str">
         <v>Dublin Region</v>
       </c>
-      <c r="BF5" t="str">
+      <c r="BG5" t="str">
         <v>Ireland</v>
       </c>
-      <c r="BG5" t="str">
+      <c r="BH5" t="str">
         <v>2020-10-15</v>
       </c>
-      <c r="BH5" t="str">
+      <c r="BI5" t="str">
         <v>2020-10-30</v>
       </c>
-      <c r="BI5" t="str">
+      <c r="BJ5" t="str">
         <v>Canada, New Brunswick</v>
       </c>
-      <c r="BJ5" t="str">
+      <c r="BK5" t="str">
         <v>Other</v>
       </c>
-      <c r="BK5" t="str">
+      <c r="BL5" t="str">
         <v>Direct</v>
       </c>
-      <c r="BL5" t="str">
+      <c r="BM5" t="str">
         <v>Administrator</v>
       </c>
-      <c r="BM5" t="str">
+      <c r="BN5" t="str">
         <v>Daycare</v>
       </c>
-      <c r="BN5" t="str">
+      <c r="BO5" t="str">
         <v>Direct contact with COVID-19 positive visitor at place of wokr.</v>
       </c>
-      <c r="BO5" t="str">
+      <c r="BP5" t="str">
         <v>Research</v>
       </c>
-      <c r="BP5" t="str">
+      <c r="BQ5" t="str">
         <v>ABC-6543211</v>
       </c>
-      <c r="BQ5" t="str">
+      <c r="BR5" t="str">
         <v>260</v>
       </c>
-      <c r="BR5" t="str">
+      <c r="BS5" t="str">
         <v>NEBNext Ultra I</v>
       </c>
-      <c r="BS5" t="str">
+      <c r="BT5" t="str">
         <v>6476849764</v>
       </c>
-      <c r="BT5" t="str">
+      <c r="BU5" t="str">
         <v>Illumina Genome Analyzer II</v>
       </c>
-      <c r="BU5" t="str">
+      <c r="BV5" t="str">
         <v>Super Duper Prot. v.1.9</v>
       </c>
-      <c r="BV5" t="str">
+      <c r="BW5" t="str">
         <v>ARTIC Network</v>
       </c>
-      <c r="BW5" t="str">
+      <c r="BX5" t="str">
         <v>CO32934396</v>
       </c>
-      <c r="BX5" t="str">
+      <c r="BY5" t="str">
         <v>Mali_RmYN02_eaqr-amplicon.txt</v>
       </c>
-      <c r="BY5" t="str">
+      <c r="BZ5" t="str">
         <v>2020-08-31</v>
       </c>
-      <c r="BZ5" t="str">
+      <c r="CA5" t="str">
         <v>Guppy v. 0.5.1</v>
       </c>
-      <c r="CA5" t="str">
+      <c r="CB5" t="str">
         <v>116x</v>
       </c>
-      <c r="CB5" t="str">
+      <c r="CC5" t="str">
         <v>mali_rmyn02_eaqr1assembly.fasta</v>
       </c>
-      <c r="CC5" t="str">
+      <c r="CD5" t="str">
         <v>Velvet</v>
       </c>
-      <c r="CD5" t="str">
+      <c r="CE5" t="str">
         <v>83.65%</v>
       </c>
-      <c r="CE5" t="str">
+      <c r="CF5" t="str">
         <v>111x</v>
       </c>
-      <c r="CF5" t="str">
+      <c r="CG5" t="str">
         <v>Mali-RmYN02eaqr_S1_L001_R1_001.fastq.gz</v>
       </c>
-      <c r="CG5" t="str">
+      <c r="CH5" t="str">
         <v>Mali-RmYN02eaqr_S1_L001_R2_001.fastq.gz</v>
       </c>
-      <c r="CH5" t="str">
+      <c r="CI5" t="str">
         <v>/Users/Lori/Documents/</v>
       </c>
-      <c r="CI5" t="str">
+      <c r="CJ5" t="str">
         <v>/Users/Monica Kelley/Google Drive/staff/girl.fastq.gz</v>
       </c>
-      <c r="CJ5" t="str">
+      <c r="CK5" t="str">
         <v>Mali_RmYN02_eaqr-batch2b.fast5</v>
       </c>
-      <c r="CK5" t="str">
+      <c r="CL5" t="str">
         <v>/Users/Hurley/Downloads/seq/</v>
       </c>
-      <c r="CL5" t="str">
+      <c r="CM5" t="str">
         <v>Mali_RmYN02_eaqr-batch2b.fasta</v>
       </c>
-      <c r="CM5" t="str">
+      <c r="CN5" t="str">
         <v>/Users/James/Downloads/be/</v>
       </c>
-      <c r="CN5" t="str">
+      <c r="CO5" t="str">
         <v>157621</v>
       </c>
-      <c r="CO5" t="str">
+      <c r="CP5" t="str">
         <v>6672</v>
       </c>
-      <c r="CP5" t="str">
+      <c r="CQ5" t="str">
         <v>5799</v>
       </c>
-      <c r="CQ5" t="str">
+      <c r="CR5" t="str">
         <v>1887</v>
       </c>
-      <c r="CR5" t="str">
+      <c r="CS5" t="str">
         <v>419.92</v>
       </c>
-      <c r="CS5" t="str">
+      <c r="CT5" t="str">
         <v>MN988668</v>
       </c>
-      <c r="CT5" t="str">
+      <c r="CU5" t="str">
         <v>SARS-CoV-2_GWA665</v>
       </c>
-      <c r="CU5" t="str">
+      <c r="CV5" t="str">
         <v>FALCON v0.1</v>
       </c>
-      <c r="CV5" t="str">
+      <c r="CW5" t="str">
         <v>SARS-CoV-2_GWA665.fasta</v>
       </c>
-      <c r="CW5" t="str">
+      <c r="CX5" t="str">
         <v>/Users/Watts/Documents/DEN/</v>
       </c>
-      <c r="CX5" t="str">
+      <c r="CY5" t="str">
         <v>Mali_RmYN02_eaqr-annotation.tbl</v>
       </c>
-      <c r="CY5" t="str">
+      <c r="CZ5" t="str">
         <v>Pacbio long-read sequencing 0.2.6</v>
       </c>
-      <c r="CZ5" t="str">
+      <c r="DA5" t="str">
         <v>N (orf9)</v>
       </c>
-      <c r="DA5" t="str">
+      <c r="DB5" t="str">
         <v>SARS-CoV-2 real-time RT-PCR N gene 2020 (2019-nCoV-related test) V.2</v>
       </c>
-      <c r="DB5" t="str">
+      <c r="DC5" t="str">
         <v>28</v>
       </c>
-      <c r="DC5" t="str">
+      <c r="DD5" t="str">
         <v>ORF6 (ns6)</v>
       </c>
-      <c r="DD5" t="str">
+      <c r="DE5" t="str">
         <v>Withalwaysnote_V 6</v>
       </c>
-      <c r="DE5" t="str">
+      <c r="DF5" t="str">
         <v>6</v>
       </c>
-      <c r="DF5" t="str">
+      <c r="DG5" t="str">
         <v>Margaret Holder</v>
       </c>
-      <c r="DG5" t="str">
+      <c r="DH5" t="str">
         <v>DataHarmonizer: v0.13.3</v>
       </c>
     </row>
@@ -2195,198 +2210,201 @@
         <v>84</v>
       </c>
       <c r="AU6" t="str">
+        <v/>
+      </c>
+      <c r="AV6" t="str">
         <v>80 - 89</v>
       </c>
-      <c r="AV6" t="str">
+      <c r="AW6" t="str">
         <v>Male</v>
       </c>
-      <c r="AW6" t="str">
+      <c r="AX6" t="str">
         <v>Canada</v>
       </c>
-      <c r="AX6" t="str">
+      <c r="AY6" t="str">
         <v>007-Gld-6</v>
       </c>
-      <c r="AY6" t="str">
+      <c r="AZ6" t="str">
         <v>2020-02-22</v>
       </c>
-      <c r="AZ6" t="str">
+      <c r="BA6" t="str">
         <v>Confusion; Irritability; Asthenia (general weakness); Cough</v>
       </c>
-      <c r="BA6" t="str">
+      <c r="BB6" t="str">
         <v>Hypertension (high blood pressure); Postpartum (≤6 weeks)</v>
       </c>
-      <c r="BB6" t="str">
+      <c r="BC6" t="str">
         <v>COVID-19 associated ARDS (CARDS); Cardiac injury; Cardiac arrest</v>
       </c>
-      <c r="BC6" t="str">
+      <c r="BD6" t="str">
         <v>Kosovo</v>
       </c>
-      <c r="BD6" t="str">
+      <c r="BE6" t="str">
         <v>Nice</v>
       </c>
-      <c r="BE6" t="str">
+      <c r="BF6" t="str">
         <v>Provence-Alpes-Cote d'Azur Region</v>
       </c>
-      <c r="BF6" t="str">
+      <c r="BG6" t="str">
         <v>France</v>
       </c>
-      <c r="BG6" t="str">
+      <c r="BH6" t="str">
         <v>2020-09-01</v>
       </c>
-      <c r="BH6" t="str">
+      <c r="BI6" t="str">
         <v>2020-09-03</v>
       </c>
-      <c r="BI6" t="str">
+      <c r="BJ6" t="str">
         <v>Canada, Herchmer; Canada, Montreal; Kosovo, Prishtina</v>
       </c>
-      <c r="BJ6" t="str">
+      <c r="BK6" t="str">
         <v>Not Applicable</v>
       </c>
-      <c r="BK6" t="str">
+      <c r="BL6" t="str">
         <v>Unknown</v>
       </c>
-      <c r="BL6" t="str">
+      <c r="BM6" t="str">
         <v>First Responder</v>
       </c>
-      <c r="BM6" t="str">
+      <c r="BN6" t="str">
         <v>Household</v>
       </c>
-      <c r="BN6" t="str">
+      <c r="BO6" t="str">
         <v>Exposure setting - visited personal home for work duty.</v>
       </c>
-      <c r="BO6" t="str">
+      <c r="BP6" t="str">
         <v>Surveillance testing</v>
       </c>
-      <c r="BP6" t="str">
+      <c r="BQ6" t="str">
         <v>Newfoundland_Bronchoscope_IskH_007</v>
       </c>
-      <c r="BQ6" t="str">
+      <c r="BR6" t="str">
         <v>187</v>
       </c>
-      <c r="BR6" t="str">
+      <c r="BS6" t="str">
         <v>Collibri PS DNA Library Prep Kit</v>
       </c>
-      <c r="BS6" t="str">
+      <c r="BT6" t="str">
         <v>3821789592</v>
       </c>
-      <c r="BT6" t="str">
+      <c r="BU6" t="str">
         <v>Ion Torrent S5 XL</v>
       </c>
-      <c r="BU6" t="str">
+      <c r="BV6" t="str">
         <v>pro-seq tech protocol v. 8</v>
       </c>
-      <c r="BV6" t="str">
+      <c r="BW6" t="str">
         <v>NGS protocol v.5.0</v>
       </c>
-      <c r="BW6" t="str">
+      <c r="BX6" t="str">
         <v>LS-2CUO1B</v>
       </c>
-      <c r="BX6" t="str">
+      <c r="BY6" t="str">
         <v>Newfoundland_B-IskH_primer_2020-03.txt</v>
       </c>
-      <c r="BY6" t="str">
+      <c r="BZ6" t="str">
         <v>2020-10-15</v>
       </c>
-      <c r="BZ6" t="str">
+      <c r="CA6" t="str">
         <v>Cutadapt v. 2.10</v>
       </c>
-      <c r="CA6" t="str">
+      <c r="CB6" t="str">
         <v>127x</v>
       </c>
-      <c r="CB6" t="str">
+      <c r="CC6" t="str">
         <v>newfoundland_B-IskH_assembly.fasta</v>
       </c>
-      <c r="CC6" t="str">
+      <c r="CD6" t="str">
         <v>Canu</v>
       </c>
-      <c r="CD6" t="str">
+      <c r="CE6" t="str">
         <v>56.4%</v>
       </c>
-      <c r="CE6" t="str">
+      <c r="CF6" t="str">
         <v>62x</v>
       </c>
-      <c r="CF6" t="str">
+      <c r="CG6" t="str">
         <v>Newfoundland_B-IskH_S1_L103_R1_001.fastq.gz</v>
       </c>
-      <c r="CG6" t="str">
+      <c r="CH6" t="str">
         <v>Newfoundland_B-IskH_S1_L103_R2_001.fastq.gz</v>
       </c>
-      <c r="CH6" t="str">
+      <c r="CI6" t="str">
         <v>/Users/Nathan Lloyd/Documents/</v>
       </c>
-      <c r="CI6" t="str">
+      <c r="CJ6" t="str">
         <v>/Users/Ricky/Google Drive/Window/</v>
       </c>
-      <c r="CJ6" t="str">
+      <c r="CK6" t="str">
         <v>Newfoundland_batch03_B-IskH_2020-03.fast5</v>
       </c>
-      <c r="CK6" t="str">
+      <c r="CL6" t="str">
         <v>/Users/Douglas/Google Drive/test/Newfoundland_batch03_B-IskH_2020-03.fast5</v>
       </c>
-      <c r="CL6" t="str">
+      <c r="CM6" t="str">
         <v>Newfoundland_batch03_B-IskH_2020-03.fasta</v>
       </c>
-      <c r="CM6" t="str">
+      <c r="CN6" t="str">
         <v>/Users/Sandra English/Desktop/Theory/Newfoundland_batch03_B-IskH_2020-03.fasta</v>
       </c>
-      <c r="CN6" t="str">
+      <c r="CO6" t="str">
         <v>336858</v>
       </c>
-      <c r="CO6" t="str">
+      <c r="CP6" t="str">
         <v>15187</v>
       </c>
-      <c r="CP6" t="str">
+      <c r="CQ6" t="str">
         <v>46431</v>
       </c>
-      <c r="CQ6" t="str">
+      <c r="CR6" t="str">
         <v>4921</v>
       </c>
-      <c r="CR6" t="str">
+      <c r="CS6" t="str">
         <v>932.78</v>
       </c>
-      <c r="CS6" t="str">
+      <c r="CT6" t="str">
         <v>SRR80285415</v>
       </c>
-      <c r="CT6" t="str">
+      <c r="CU6" t="str">
         <v>Prov_NOJ678</v>
       </c>
-      <c r="CU6" t="str">
+      <c r="CV6" t="str">
         <v>iVar v. 1.0</v>
       </c>
-      <c r="CV6" t="str">
+      <c r="CW6" t="str">
         <v>Prov_NOJ678-consensus.fasta</v>
       </c>
-      <c r="CW6" t="str">
+      <c r="CX6" t="str">
         <v>/Users/Mclean/Desktop/-/Prov_NOJ678-consensus.fasta</v>
       </c>
-      <c r="CX6" t="str">
+      <c r="CY6" t="str">
         <v>Newfoundland_anno-table_B-IskH_2020-03.tbl</v>
       </c>
-      <c r="CY6" t="str">
+      <c r="CZ6" t="str">
         <v>Ultra-deep-long-read-nanopore-sequencing-of-mock-m-x9tfr6n</v>
       </c>
-      <c r="CZ6" t="str">
+      <c r="DA6" t="str">
         <v>nsp15</v>
       </c>
-      <c r="DA6" t="str">
+      <c r="DB6" t="str">
         <v>2019-nCoV nsp 15 v.10</v>
       </c>
-      <c r="DB6" t="str">
+      <c r="DC6" t="str">
         <v>31</v>
       </c>
-      <c r="DC6" t="str">
+      <c r="DD6" t="str">
         <v>ORF1ab (rep)</v>
       </c>
-      <c r="DD6" t="str">
+      <c r="DE6" t="str">
         <v>SARS-CoV-2 RT-PCR ORF1ab 2020 (Wuhan-ORF1ab; 2019-nCoV-related test V.3</v>
       </c>
-      <c r="DE6" t="str">
+      <c r="DF6" t="str">
         <v>3</v>
       </c>
-      <c r="DF6" t="str">
+      <c r="DG6" t="str">
         <v>Caleb S. Ribush, Abbie Stanley, Gaston Lafond, Cai Shao, Doreen Wexler, Bonanova Aparicio</v>
       </c>
-      <c r="DG6" t="str">
+      <c r="DH6" t="str">
         <v>DataHarmonizer: v0.13.3</v>
       </c>
     </row>
@@ -2530,201 +2548,204 @@
         <v>86</v>
       </c>
       <c r="AU7" t="str">
+        <v/>
+      </c>
+      <c r="AV7" t="str">
         <v>80 - 89</v>
       </c>
-      <c r="AV7" t="str">
+      <c r="AW7" t="str">
         <v>Transgender</v>
       </c>
-      <c r="AW7" t="str">
+      <c r="AX7" t="str">
         <v>Saint Helena</v>
       </c>
-      <c r="AX7" t="str">
+      <c r="AY7" t="str">
         <v>eEn6</v>
       </c>
-      <c r="AY7" t="str">
+      <c r="AZ7" t="str">
         <v>2020-02-13</v>
       </c>
-      <c r="AZ7" t="str">
+      <c r="BA7" t="str">
         <v>Parageusia (distorted sense of taste); Nonproductive cough (dry cough); Dyspnea (breathing difficulty); Encephalitis (brain inflammation); Fever (≥38°C)</v>
       </c>
-      <c r="BA7" t="str">
+      <c r="BB7" t="str">
         <v>Lupus; Sickle cell disease</v>
       </c>
-      <c r="BC7" t="str">
+      <c r="BD7" t="str">
         <v>Canada</v>
       </c>
-      <c r="BD7" t="str">
+      <c r="BE7" t="str">
         <v>Johannesberg</v>
       </c>
-      <c r="BE7" t="str">
+      <c r="BF7" t="str">
         <v>Gauteng Province</v>
       </c>
-      <c r="BF7" t="str">
+      <c r="BG7" t="str">
         <v>South Africa</v>
       </c>
-      <c r="BG7" t="str">
+      <c r="BH7" t="str">
         <v>2020-08-08</v>
       </c>
-      <c r="BH7" t="str">
+      <c r="BI7" t="str">
         <v>2020-08-31</v>
       </c>
-      <c r="BI7" t="str">
+      <c r="BJ7" t="str">
         <v>Canada, Toronto; USA, New York City</v>
       </c>
-      <c r="BJ7" t="str">
+      <c r="BK7" t="str">
         <v>Convention</v>
       </c>
-      <c r="BK7" t="str">
+      <c r="BL7" t="str">
         <v>Indirect</v>
       </c>
-      <c r="BL7" t="str">
+      <c r="BM7" t="str">
         <v>Visitor</v>
       </c>
-      <c r="BM7" t="str">
+      <c r="BN7" t="str">
         <v>Community Service Centre</v>
       </c>
-      <c r="BN7" t="str">
+      <c r="BO7" t="str">
         <v>Attended convention where multiple people where later diagnosed with COVID-19.</v>
       </c>
-      <c r="BO7" t="str">
+      <c r="BP7" t="str">
         <v>Viral passage experiment</v>
       </c>
-      <c r="BP7" t="str">
+      <c r="BQ7" t="str">
         <v>HospitalMissing555-22</v>
       </c>
-      <c r="BQ7" t="str">
+      <c r="BR7" t="str">
         <v>312</v>
       </c>
-      <c r="BR7" t="str">
+      <c r="BS7" t="str">
         <v>QIAseq FX DNA</v>
       </c>
-      <c r="BS7" t="str">
+      <c r="BT7" t="str">
         <v>8439507566</v>
       </c>
-      <c r="BT7" t="str">
+      <c r="BU7" t="str">
         <v>NextSeq 500</v>
       </c>
-      <c r="BU7" t="str">
+      <c r="BV7" t="str">
         <v>ABI xl2500 protocol v. 0.3.5</v>
       </c>
-      <c r="BV7" t="str">
+      <c r="BW7" t="str">
         <v>ABI xl2500 protocol V13</v>
       </c>
-      <c r="BW7" t="str">
+      <c r="BX7" t="str">
         <v>YRPJ-JV6P-HVHT</v>
       </c>
-      <c r="BX7" t="str">
+      <c r="BY7" t="str">
         <v>HospitalMissing555_pcr20.txt</v>
       </c>
-      <c r="BY7" t="str">
+      <c r="BZ7" t="str">
         <v>2020-10-18</v>
       </c>
-      <c r="BZ7" t="str">
+      <c r="CA7" t="str">
         <v>BBTools v. 38.82</v>
       </c>
-      <c r="CA7" t="str">
+      <c r="CB7" t="str">
         <v>129x</v>
       </c>
-      <c r="CB7" t="str">
+      <c r="CC7" t="str">
         <v>hospitalmissing55562assembly.fasta</v>
       </c>
-      <c r="CC7" t="str">
+      <c r="CD7" t="str">
         <v>SPades</v>
       </c>
-      <c r="CD7" t="str">
+      <c r="CE7" t="str">
         <v>32%</v>
       </c>
-      <c r="CE7" t="str">
+      <c r="CF7" t="str">
         <v>4x</v>
       </c>
-      <c r="CF7" t="str">
+      <c r="CG7" t="str">
         <v>HospitalMissing555_S1_L012_R1_001.fastq.gz</v>
       </c>
-      <c r="CG7" t="str">
+      <c r="CH7" t="str">
         <v>HospitalMissing555_S1_L012_R2_001.fastq.gz</v>
       </c>
-      <c r="CH7" t="str">
+      <c r="CI7" t="str">
         <v>/Users/Henry Moss/Desktop/./</v>
       </c>
-      <c r="CI7" t="str">
+      <c r="CJ7" t="str">
         <v>/Users/Brian Cameron/Downloads/form$/light figure degree.fastq.gz</v>
       </c>
-      <c r="CJ7" t="str">
+      <c r="CK7" t="str">
         <v>HospitalMissing555_sequences.fast5</v>
       </c>
-      <c r="CK7" t="str">
+      <c r="CL7" t="str">
         <v>/Users/Walter Bond/Work/</v>
       </c>
-      <c r="CL7" t="str">
+      <c r="CM7" t="str">
         <v>HospitalMissing555_sequences.fasta</v>
       </c>
-      <c r="CM7" t="str">
+      <c r="CN7" t="str">
         <v>/Users/Christopher Martinez/Desktop/administration/</v>
       </c>
-      <c r="CN7" t="str">
+      <c r="CO7" t="str">
         <v>77793</v>
       </c>
-      <c r="CO7" t="str">
+      <c r="CP7" t="str">
         <v>14795</v>
       </c>
-      <c r="CP7" t="str">
+      <c r="CQ7" t="str">
         <v>45791</v>
       </c>
-      <c r="CQ7" t="str">
+      <c r="CR7" t="str">
         <v>4145</v>
       </c>
-      <c r="CR7" t="str">
+      <c r="CS7" t="str">
         <v>652.11</v>
       </c>
-      <c r="CS7" t="str">
+      <c r="CT7" t="str">
         <v>NC_045512.1</v>
       </c>
-      <c r="CT7" t="str">
+      <c r="CU7" t="str">
         <v>ConsensusSeq_EAQ565</v>
       </c>
-      <c r="CU7" t="str">
+      <c r="CV7" t="str">
         <v>CASAVA 1.8.2</v>
       </c>
-      <c r="CV7" t="str">
+      <c r="CW7" t="str">
         <v>ConsensusSeq_EAQ565.fasta</v>
       </c>
-      <c r="CW7" t="str">
+      <c r="CX7" t="str">
         <v>/Users/Dunlap/Downloads/refgenome/</v>
       </c>
-      <c r="CX7" t="str">
+      <c r="CY7" t="str">
         <v>HospitalMissing555_annotations.tbl</v>
       </c>
-      <c r="CY7" t="str">
+      <c r="CZ7" t="str">
         <v>Ncov-2019 sequencing protocol for illumina version 3</v>
       </c>
-      <c r="CZ7" t="str">
+      <c r="DA7" t="str">
         <v>E (orf4)</v>
       </c>
-      <c r="DA7" t="str">
+      <c r="DB7" t="str">
         <v>Severe acute respiratory syndrome coronavirus 2 real-time PCR E gene 2020 v.0.1</v>
       </c>
-      <c r="DB7" t="str">
+      <c r="DC7" t="str">
         <v>4</v>
       </c>
-      <c r="DC7" t="str">
+      <c r="DD7" t="str">
         <v>ORF7a</v>
       </c>
-      <c r="DD7" t="str">
+      <c r="DE7" t="str">
         <v>2019-nCoV orf7a-v. 2</v>
       </c>
-      <c r="DE7" t="str">
+      <c r="DF7" t="str">
         <v>36</v>
       </c>
-      <c r="DF7" t="str">
+      <c r="DG7" t="str">
         <v>Thiery Couture, Xian Ch'iu, G'Kora Zanis</v>
       </c>
-      <c r="DG7" t="str">
+      <c r="DH7" t="str">
         <v>DataHarmonizer: v0.13.3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:DG7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:DH7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/template/canada_covid19/exampleInput/validTestData.xlsx
+++ b/template/canada_covid19/exampleInput/validTestData.xlsx
@@ -1133,7 +1133,7 @@
         <v>Nucleic acid</v>
       </c>
       <c r="Z3" t="str">
-        <v>Previously Submitted</v>
+        <v>Convalescent</v>
       </c>
       <c r="AA3" t="str">
         <v>Fluid (pleural)</v>
@@ -1193,13 +1193,13 @@
         <v>Missing</v>
       </c>
       <c r="AT3" t="str">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="str">
-        <v/>
+        <v>month</v>
       </c>
       <c r="AV3" t="str">
-        <v>70 - 79</v>
+        <v>0 - 9</v>
       </c>
       <c r="AW3" t="str">
         <v>Female</v>
@@ -1214,7 +1214,7 @@
         <v>2020-03-05</v>
       </c>
       <c r="BA3" t="str">
-        <v>Ageusia (complete loss of taste); Conjunctivitis (pink eye); Cough; Headache; Hypotension (low blood pressure)</v>
+        <v>Ageusia (complete loss of taste); Cough; Headache; Hypotension (low blood pressure)</v>
       </c>
       <c r="BB3" t="str">
         <v>Age 60+; Metastatic disease; Smoking</v>
@@ -1229,7 +1229,7 @@
         <v>New York City</v>
       </c>
       <c r="BF3" t="str">
-        <v>State of New York</v>
+        <v>New York</v>
       </c>
       <c r="BG3" t="str">
         <v>United States of America</v>
@@ -1471,7 +1471,7 @@
         <v>Swab</v>
       </c>
       <c r="Z4" t="str">
-        <v>Previously Submitted</v>
+        <v>Convalescent</v>
       </c>
       <c r="AA4" t="str">
         <v>Missing</v>
@@ -1534,7 +1534,7 @@
         <v>89</v>
       </c>
       <c r="AU4" t="str">
-        <v/>
+        <v>year</v>
       </c>
       <c r="AV4" t="str">
         <v>80 - 89</v>
@@ -1552,7 +1552,7 @@
         <v>2020-03-08</v>
       </c>
       <c r="BA4" t="str">
-        <v>Confusion; Chills (sudden cold sensation); Cough; Arthralgia (painful joints); Myalgia (muscle pain); Pharyngitis (sore throat)</v>
+        <v>Confusion; Cough; Pharyngitis (sore throat)</v>
       </c>
       <c r="BB4" t="str">
         <v>Bone marrow failure; Metastatic disease; Cardiac disease</v>
@@ -1788,10 +1788,10 @@
         <v>2020-05-10</v>
       </c>
       <c r="S5" t="str">
-        <v>Mali</v>
+        <v>Canada</v>
       </c>
       <c r="T5" t="str">
-        <v>Not Applicable</v>
+        <v>Alberta</v>
       </c>
       <c r="U5" t="str">
         <v>Sikasso</v>
@@ -1872,7 +1872,7 @@
         <v>61</v>
       </c>
       <c r="AU5" t="str">
-        <v/>
+        <v>year</v>
       </c>
       <c r="AV5" t="str">
         <v>60 - 69</v>
@@ -1890,7 +1890,7 @@
         <v>2020-01-10</v>
       </c>
       <c r="BA5" t="str">
-        <v>Dyspnea (breathing difficulty); Malaise (general discomfort/unease); Rhinorrhea (runny nose); Tachypnea (accelerated respiratory rate); Vomiting (throwing up)</v>
+        <v>Coma; Dyspnea (breathing difficulty); Rhinorrhea (runny nose)</v>
       </c>
       <c r="BB5" t="str">
         <v>Anemia</v>
@@ -1905,7 +1905,7 @@
         <v>Dublin</v>
       </c>
       <c r="BF5" t="str">
-        <v>Dublin Region</v>
+        <v>Dublin</v>
       </c>
       <c r="BG5" t="str">
         <v>Ireland</v>
@@ -1920,7 +1920,7 @@
         <v>Canada, New Brunswick</v>
       </c>
       <c r="BK5" t="str">
-        <v>Other</v>
+        <v>Missing</v>
       </c>
       <c r="BL5" t="str">
         <v>Direct</v>
@@ -2189,10 +2189,10 @@
         <v>mRNA (cDNA)</v>
       </c>
       <c r="AN6" t="str">
-        <v>Pig</v>
+        <v>Human</v>
       </c>
       <c r="AO6" t="str">
-        <v>Sus scrofa domesticus</v>
+        <v>Homo sapiens</v>
       </c>
       <c r="AP6" t="str">
         <v>Not Applicable</v>
@@ -2210,7 +2210,7 @@
         <v>84</v>
       </c>
       <c r="AU6" t="str">
-        <v/>
+        <v>year</v>
       </c>
       <c r="AV6" t="str">
         <v>80 - 89</v>
@@ -2228,7 +2228,7 @@
         <v>2020-02-22</v>
       </c>
       <c r="BA6" t="str">
-        <v>Confusion; Irritability; Asthenia (general weakness); Cough</v>
+        <v>Confusion; Irritability; Cough</v>
       </c>
       <c r="BB6" t="str">
         <v>Hypertension (high blood pressure); Postpartum (≤6 weeks)</v>
@@ -2243,7 +2243,7 @@
         <v>Nice</v>
       </c>
       <c r="BF6" t="str">
-        <v>Provence-Alpes-Cote d'Azur Region</v>
+        <v>Provence-Alpes-Cote d'Azur</v>
       </c>
       <c r="BG6" t="str">
         <v>France</v>
@@ -2548,7 +2548,7 @@
         <v>86</v>
       </c>
       <c r="AU7" t="str">
-        <v/>
+        <v>year</v>
       </c>
       <c r="AV7" t="str">
         <v>80 - 89</v>
@@ -2566,7 +2566,7 @@
         <v>2020-02-13</v>
       </c>
       <c r="BA7" t="str">
-        <v>Parageusia (distorted sense of taste); Nonproductive cough (dry cough); Dyspnea (breathing difficulty); Encephalitis (brain inflammation); Fever (≥38°C)</v>
+        <v>Cognitive impairment; Fever</v>
       </c>
       <c r="BB7" t="str">
         <v>Lupus; Sickle cell disease</v>
@@ -2578,7 +2578,7 @@
         <v>Johannesberg</v>
       </c>
       <c r="BF7" t="str">
-        <v>Gauteng Province</v>
+        <v>Gauteng</v>
       </c>
       <c r="BG7" t="str">
         <v>South Africa</v>

--- a/template/canada_covid19/exampleInput/validTestData.xlsx
+++ b/template/canada_covid19/exampleInput/validTestData.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DH7"/>
+  <dimension ref="A1:DJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -499,11 +499,11 @@
         <v/>
       </c>
       <c r="AN1" t="str">
+        <v/>
+      </c>
+      <c r="AO1" t="str">
         <v>Host Information</v>
       </c>
-      <c r="AO1" t="str">
-        <v/>
-      </c>
       <c r="AP1" t="str">
         <v/>
       </c>
@@ -547,11 +547,11 @@
         <v/>
       </c>
       <c r="BD1" t="str">
+        <v/>
+      </c>
+      <c r="BE1" t="str">
         <v>Host exposure information</v>
       </c>
-      <c r="BE1" t="str">
-        <v/>
-      </c>
       <c r="BF1" t="str">
         <v/>
       </c>
@@ -583,11 +583,11 @@
         <v/>
       </c>
       <c r="BP1" t="str">
+        <v/>
+      </c>
+      <c r="BQ1" t="str">
         <v>Sequencing</v>
       </c>
-      <c r="BQ1" t="str">
-        <v/>
-      </c>
       <c r="BR1" t="str">
         <v/>
       </c>
@@ -616,14 +616,14 @@
         <v/>
       </c>
       <c r="CA1" t="str">
+        <v/>
+      </c>
+      <c r="CB1" t="str">
+        <v/>
+      </c>
+      <c r="CC1" t="str">
         <v>Bioinformatics and QC metrics</v>
       </c>
-      <c r="CB1" t="str">
-        <v/>
-      </c>
-      <c r="CC1" t="str">
-        <v/>
-      </c>
       <c r="CD1" t="str">
         <v/>
       </c>
@@ -694,14 +694,14 @@
         <v/>
       </c>
       <c r="DA1" t="str">
+        <v/>
+      </c>
+      <c r="DB1" t="str">
+        <v/>
+      </c>
+      <c r="DC1" t="str">
         <v>Pathogen diagnostic testing</v>
       </c>
-      <c r="DB1" t="str">
-        <v/>
-      </c>
-      <c r="DC1" t="str">
-        <v/>
-      </c>
       <c r="DD1" t="str">
         <v/>
       </c>
@@ -712,9 +712,15 @@
         <v/>
       </c>
       <c r="DG1" t="str">
+        <v/>
+      </c>
+      <c r="DH1" t="str">
+        <v/>
+      </c>
+      <c r="DI1" t="str">
         <v>Contributor acknowledgement</v>
       </c>
-      <c r="DH1" t="str">
+      <c r="DJ1" t="str">
         <v/>
       </c>
     </row>
@@ -792,267 +798,273 @@
         <v>purpose of sampling</v>
       </c>
       <c r="Y2" t="str">
+        <v>purpose of sampling details</v>
+      </c>
+      <c r="Z2" t="str">
         <v>NML submitted specimen type</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="AA2" t="str">
         <v>NML related specimen relationship type</v>
       </c>
-      <c r="AA2" t="str">
+      <c r="AB2" t="str">
         <v>anatomical material</v>
       </c>
-      <c r="AB2" t="str">
+      <c r="AC2" t="str">
         <v>anatomical part</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="AD2" t="str">
         <v>body product</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AE2" t="str">
         <v>environmental material</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AF2" t="str">
         <v>environmental site</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AG2" t="str">
         <v>collection device</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="AH2" t="str">
         <v>collection method</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AI2" t="str">
         <v>collection protocol</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AJ2" t="str">
         <v>specimen processing</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AK2" t="str">
         <v>lab host</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AL2" t="str">
         <v>passage number</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AM2" t="str">
         <v>passage method</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AN2" t="str">
         <v>biomaterial extracted</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AO2" t="str">
         <v>host (common name)</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AP2" t="str">
         <v>host (scientific name)</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="AQ2" t="str">
         <v>host health state</v>
       </c>
-      <c r="AQ2" t="str">
+      <c r="AR2" t="str">
         <v>host health status details</v>
       </c>
-      <c r="AR2" t="str">
+      <c r="AS2" t="str">
         <v>host health outcome</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="AT2" t="str">
         <v>host disease</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="AU2" t="str">
         <v>host age</v>
       </c>
-      <c r="AU2" t="str">
+      <c r="AV2" t="str">
         <v>host age unit</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="AW2" t="str">
         <v>host age bin</v>
       </c>
-      <c r="AW2" t="str">
+      <c r="AX2" t="str">
         <v>host gender</v>
       </c>
-      <c r="AX2" t="str">
+      <c r="AY2" t="str">
         <v>host origin geo_loc name (country)</v>
       </c>
-      <c r="AY2" t="str">
+      <c r="AZ2" t="str">
         <v>host subject ID</v>
       </c>
-      <c r="AZ2" t="str">
+      <c r="BA2" t="str">
         <v>symptom onset date</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BB2" t="str">
         <v>signs and symptoms</v>
       </c>
-      <c r="BB2" t="str">
+      <c r="BC2" t="str">
         <v>pre-existing conditions and risk factors</v>
       </c>
-      <c r="BC2" t="str">
+      <c r="BD2" t="str">
         <v>complications</v>
       </c>
-      <c r="BD2" t="str">
+      <c r="BE2" t="str">
         <v>location of exposure geo_loc name (country)</v>
       </c>
-      <c r="BE2" t="str">
+      <c r="BF2" t="str">
         <v>destination of most recent travel (city)</v>
       </c>
-      <c r="BF2" t="str">
+      <c r="BG2" t="str">
         <v>destination of most recent travel (state/province/territory)</v>
       </c>
-      <c r="BG2" t="str">
+      <c r="BH2" t="str">
         <v>destination of most recent travel (country)</v>
       </c>
-      <c r="BH2" t="str">
+      <c r="BI2" t="str">
         <v>most recent travel departure date</v>
       </c>
-      <c r="BI2" t="str">
+      <c r="BJ2" t="str">
         <v>most recent travel return date</v>
       </c>
-      <c r="BJ2" t="str">
+      <c r="BK2" t="str">
         <v>travel history</v>
       </c>
-      <c r="BK2" t="str">
+      <c r="BL2" t="str">
         <v>exposure event</v>
       </c>
-      <c r="BL2" t="str">
+      <c r="BM2" t="str">
         <v>direct/indirect exposure</v>
       </c>
-      <c r="BM2" t="str">
+      <c r="BN2" t="str">
         <v>host role</v>
       </c>
-      <c r="BN2" t="str">
+      <c r="BO2" t="str">
         <v>exposure setting</v>
       </c>
-      <c r="BO2" t="str">
+      <c r="BP2" t="str">
         <v>exposure details</v>
       </c>
-      <c r="BP2" t="str">
+      <c r="BQ2" t="str">
         <v>purpose of sequencing</v>
       </c>
-      <c r="BQ2" t="str">
+      <c r="BR2" t="str">
+        <v>purpose of sequencing details</v>
+      </c>
+      <c r="BS2" t="str">
         <v>library ID</v>
       </c>
-      <c r="BR2" t="str">
+      <c r="BT2" t="str">
         <v>library insert size</v>
       </c>
-      <c r="BS2" t="str">
+      <c r="BU2" t="str">
         <v>library preparation method</v>
       </c>
-      <c r="BT2" t="str">
+      <c r="BV2" t="str">
         <v>MinIon barcode</v>
       </c>
-      <c r="BU2" t="str">
+      <c r="BW2" t="str">
         <v>sequencing instrument</v>
       </c>
-      <c r="BV2" t="str">
+      <c r="BX2" t="str">
         <v>sequencing protocol name</v>
       </c>
-      <c r="BW2" t="str">
+      <c r="BY2" t="str">
         <v>sequencing protocol source</v>
       </c>
-      <c r="BX2" t="str">
+      <c r="BZ2" t="str">
         <v>sequencing kit number</v>
       </c>
-      <c r="BY2" t="str">
+      <c r="CA2" t="str">
         <v>amplicon pcr primers filename</v>
       </c>
-      <c r="BZ2" t="str">
+      <c r="CB2" t="str">
         <v>sample sequenced date</v>
       </c>
-      <c r="CA2" t="str">
+      <c r="CC2" t="str">
         <v>raw sequence data processing</v>
       </c>
-      <c r="CB2" t="str">
+      <c r="CD2" t="str">
         <v>sequencing depth (average)</v>
       </c>
-      <c r="CC2" t="str">
+      <c r="CE2" t="str">
         <v>assembly name</v>
       </c>
-      <c r="CD2" t="str">
+      <c r="CF2" t="str">
         <v>assembly method</v>
       </c>
-      <c r="CE2" t="str">
+      <c r="CG2" t="str">
         <v>assembly coverage breadth</v>
       </c>
-      <c r="CF2" t="str">
+      <c r="CH2" t="str">
         <v>assembly coverage depth</v>
       </c>
-      <c r="CG2" t="str">
+      <c r="CI2" t="str">
         <v>r1 fastq filename</v>
       </c>
-      <c r="CH2" t="str">
+      <c r="CJ2" t="str">
         <v>r2 fastq filename</v>
       </c>
-      <c r="CI2" t="str">
+      <c r="CK2" t="str">
         <v>r1 fastq filepath</v>
       </c>
-      <c r="CJ2" t="str">
+      <c r="CL2" t="str">
         <v>r2 fastq filepath</v>
       </c>
-      <c r="CK2" t="str">
+      <c r="CM2" t="str">
         <v>fast5 filename</v>
       </c>
-      <c r="CL2" t="str">
+      <c r="CN2" t="str">
         <v>fast5 filepath</v>
       </c>
-      <c r="CM2" t="str">
+      <c r="CO2" t="str">
         <v>fasta filename</v>
       </c>
-      <c r="CN2" t="str">
+      <c r="CP2" t="str">
         <v>fasta filepath</v>
       </c>
-      <c r="CO2" t="str">
+      <c r="CQ2" t="str">
         <v>number base pairs</v>
       </c>
-      <c r="CP2" t="str">
+      <c r="CR2" t="str">
         <v>consensus genome length</v>
       </c>
-      <c r="CQ2" t="str">
+      <c r="CS2" t="str">
         <v>mean contig length</v>
       </c>
-      <c r="CR2" t="str">
+      <c r="CT2" t="str">
         <v>N50</v>
       </c>
-      <c r="CS2" t="str">
+      <c r="CU2" t="str">
         <v>Ns per 100 kbp</v>
       </c>
-      <c r="CT2" t="str">
+      <c r="CV2" t="str">
         <v>reference genome accession</v>
       </c>
-      <c r="CU2" t="str">
+      <c r="CW2" t="str">
         <v>consensus sequence ID</v>
       </c>
-      <c r="CV2" t="str">
+      <c r="CX2" t="str">
         <v>consensus sequence method</v>
       </c>
-      <c r="CW2" t="str">
+      <c r="CY2" t="str">
         <v>consensus sequence filename</v>
       </c>
-      <c r="CX2" t="str">
+      <c r="CZ2" t="str">
         <v>consensus sequence filepath</v>
       </c>
-      <c r="CY2" t="str">
+      <c r="DA2" t="str">
         <v>annotation feature table filename</v>
       </c>
-      <c r="CZ2" t="str">
+      <c r="DB2" t="str">
         <v>bioinformatics protocol</v>
       </c>
-      <c r="DA2" t="str">
+      <c r="DC2" t="str">
         <v>gene name 1</v>
       </c>
-      <c r="DB2" t="str">
+      <c r="DD2" t="str">
         <v>diagnostic pcr protocol 1</v>
       </c>
-      <c r="DC2" t="str">
+      <c r="DE2" t="str">
         <v>diagnostic pcr Ct value 1</v>
       </c>
-      <c r="DD2" t="str">
+      <c r="DF2" t="str">
         <v>gene name 2</v>
       </c>
-      <c r="DE2" t="str">
+      <c r="DG2" t="str">
         <v>diagnostic pcr protocol 2</v>
       </c>
-      <c r="DF2" t="str">
+      <c r="DH2" t="str">
         <v>diagnostic pcr Ct value 2</v>
       </c>
-      <c r="DG2" t="str">
+      <c r="DI2" t="str">
         <v>authors</v>
       </c>
-      <c r="DH2" t="str">
+      <c r="DJ2" t="str">
         <v>DataHarmonizer provenance</v>
       </c>
     </row>
@@ -1130,61 +1142,61 @@
         <v>Diagnostic testing</v>
       </c>
       <c r="Y3" t="str">
+        <v>Diagnose whether causative agent was SARS-CoV-2 or seasonal influenza.</v>
+      </c>
+      <c r="Z3" t="str">
         <v>Nucleic acid</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="AA3" t="str">
         <v>Convalescent</v>
       </c>
-      <c r="AA3" t="str">
+      <c r="AB3" t="str">
         <v>Fluid (pleural)</v>
       </c>
-      <c r="AB3" t="str">
+      <c r="AC3" t="str">
         <v>Pleural sac</v>
       </c>
-      <c r="AC3" t="str">
+      <c r="AD3" t="str">
         <v>Not Applicable</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="AE3" t="str">
         <v>Light switch</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="AF3" t="str">
         <v>Animal house</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AG3" t="str">
         <v>Fine Needle</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="AH3" t="str">
         <v>Needle Biopsy</v>
       </c>
-      <c r="AH3" t="str">
+      <c r="AI3" t="str">
         <v>PantherFusionSARS-CoV-2</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AJ3" t="str">
         <v>Not applicable</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AK3" t="str">
         <v>293/ACE2 cell line</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AL3" t="str">
         <v>15</v>
       </c>
-      <c r="AL3" t="str">
+      <c r="AM3" t="str">
         <v>not applicable</v>
       </c>
-      <c r="AM3" t="str">
+      <c r="AN3" t="str">
         <v>mRNA (cDNA)</v>
       </c>
-      <c r="AN3" t="str">
+      <c r="AO3" t="str">
         <v>Lion</v>
       </c>
-      <c r="AO3" t="str">
+      <c r="AP3" t="str">
         <v>Panthera leo</v>
       </c>
-      <c r="AP3" t="str">
+      <c r="AQ3" t="str">
         <v>Recovered</v>
-      </c>
-      <c r="AQ3" t="str">
-        <v>Missing</v>
       </c>
       <c r="AR3" t="str">
         <v>Missing</v>
@@ -1193,205 +1205,211 @@
         <v>Missing</v>
       </c>
       <c r="AT3" t="str">
+        <v>Missing</v>
+      </c>
+      <c r="AU3" t="str">
         <v>12</v>
       </c>
-      <c r="AU3" t="str">
+      <c r="AV3" t="str">
         <v>month</v>
       </c>
-      <c r="AV3" t="str">
+      <c r="AW3" t="str">
         <v>0 - 9</v>
       </c>
-      <c r="AW3" t="str">
+      <c r="AX3" t="str">
         <v>Female</v>
       </c>
-      <c r="AX3" t="str">
+      <c r="AY3" t="str">
         <v>United States of America</v>
       </c>
-      <c r="AY3" t="str">
+      <c r="AZ3" t="str">
         <v>nSQu_4</v>
       </c>
-      <c r="AZ3" t="str">
+      <c r="BA3" t="str">
         <v>2020-03-05</v>
       </c>
-      <c r="BA3" t="str">
+      <c r="BB3" t="str">
         <v>Ageusia (complete loss of taste); Cough; Headache; Hypotension (low blood pressure)</v>
       </c>
-      <c r="BB3" t="str">
+      <c r="BC3" t="str">
         <v>Age 60+; Metastatic disease; Smoking</v>
       </c>
-      <c r="BC3" t="str">
+      <c r="BD3" t="str">
         <v>Acute respiratory failure; Guillain-Barré syndrome</v>
       </c>
-      <c r="BD3" t="str">
+      <c r="BE3" t="str">
         <v>United States of America</v>
       </c>
-      <c r="BE3" t="str">
+      <c r="BF3" t="str">
         <v>New York City</v>
       </c>
-      <c r="BF3" t="str">
+      <c r="BG3" t="str">
         <v>New York</v>
       </c>
-      <c r="BG3" t="str">
+      <c r="BH3" t="str">
         <v>United States of America</v>
       </c>
-      <c r="BH3" t="str">
+      <c r="BI3" t="str">
         <v>2020-07-14</v>
       </c>
-      <c r="BI3" t="str">
+      <c r="BJ3" t="str">
         <v>2020-07-23</v>
       </c>
-      <c r="BJ3" t="str">
+      <c r="BK3" t="str">
         <v>Canada, Yellowknife; Canada, Fort Providence: USA, Bismarck</v>
       </c>
-      <c r="BK3" t="str">
+      <c r="BL3" t="str">
         <v>Missing</v>
       </c>
-      <c r="BL3" t="str">
+      <c r="BM3" t="str">
         <v>Indirect</v>
       </c>
-      <c r="BM3" t="str">
+      <c r="BN3" t="str">
         <v>Patient</v>
       </c>
-      <c r="BN3" t="str">
+      <c r="BO3" t="str">
         <v>Patient Contact</v>
       </c>
-      <c r="BO3" t="str">
+      <c r="BP3" t="str">
         <v>Exposure setting - in the same common room.</v>
       </c>
-      <c r="BP3" t="str">
+      <c r="BQ3" t="str">
         <v>Cluster investigation</v>
       </c>
-      <c r="BQ3" t="str">
+      <c r="BR3" t="str">
+        <v>Highschool SARS-CoV-2 cluster investigation.</v>
+      </c>
+      <c r="BS3" t="str">
         <v>Timor-Leste-Handrail-860-1</v>
       </c>
-      <c r="BR3" t="str">
+      <c r="BT3" t="str">
         <v>300</v>
       </c>
-      <c r="BS3" t="str">
+      <c r="BU3" t="str">
         <v>Nextera XT</v>
       </c>
-      <c r="BT3" t="str">
+      <c r="BV3" t="str">
         <v>3225848155</v>
       </c>
-      <c r="BU3" t="str">
+      <c r="BW3" t="str">
         <v>DNBSEQ-G50</v>
       </c>
-      <c r="BV3" t="str">
+      <c r="BX3" t="str">
         <v>NGS protocol v. 12</v>
       </c>
-      <c r="BW3" t="str">
+      <c r="BY3" t="str">
         <v>NGS Libraries</v>
       </c>
-      <c r="BX3" t="str">
+      <c r="BZ3" t="str">
         <v>NG5T1LK633</v>
       </c>
-      <c r="BY3" t="str">
+      <c r="CA3" t="str">
         <v>Timor-Leste860_2020-02.txt</v>
       </c>
-      <c r="BZ3" t="str">
+      <c r="CB3" t="str">
         <v>2020-09-01</v>
       </c>
-      <c r="CA3" t="str">
+      <c r="CC3" t="str">
         <v>Porechop v. 0.2.3</v>
       </c>
-      <c r="CB3" t="str">
+      <c r="CD3" t="str">
         <v>99x</v>
       </c>
-      <c r="CC3" t="str">
+      <c r="CE3" t="str">
         <v>timor-leste-handrail-86039assembly.fasta</v>
       </c>
-      <c r="CD3" t="str">
+      <c r="CF3" t="str">
         <v>Shovil</v>
       </c>
-      <c r="CE3" t="str">
+      <c r="CG3" t="str">
         <v>91%</v>
       </c>
-      <c r="CF3" t="str">
+      <c r="CH3" t="str">
         <v>17x</v>
       </c>
-      <c r="CG3" t="str">
+      <c r="CI3" t="str">
         <v>Timor-Leste860_S1_L001_R1_001.fastq.gz</v>
       </c>
-      <c r="CH3" t="str">
+      <c r="CJ3" t="str">
         <v>Timor-Leste860_S1_L001_R2_001.fastq.gz</v>
       </c>
-      <c r="CI3" t="str">
+      <c r="CK3" t="str">
         <v>/Users/Matthew James/Documents/I./stay dark.fastq.gz</v>
       </c>
-      <c r="CJ3" t="str">
+      <c r="CL3" t="str">
         <v>/Users/Heather Gonzalez/Downloads/Development$/</v>
       </c>
-      <c r="CK3" t="str">
+      <c r="CM3" t="str">
         <v>Timor-Leste860_2020-02_batch1a.fast5</v>
       </c>
-      <c r="CL3" t="str">
+      <c r="CN3" t="str">
         <v>/Users/Snyder/Downloads/Concern/.fast5</v>
       </c>
-      <c r="CM3" t="str">
+      <c r="CO3" t="str">
         <v>Timor-Leste860_2020-02_batch1a.fasta</v>
       </c>
-      <c r="CN3" t="str">
+      <c r="CP3" t="str">
         <v>/Users/Phillip Barry/Desktop/</v>
       </c>
-      <c r="CO3" t="str">
+      <c r="CQ3" t="str">
         <v>185272</v>
       </c>
-      <c r="CP3" t="str">
+      <c r="CR3" t="str">
         <v>2566</v>
       </c>
-      <c r="CQ3" t="str">
+      <c r="CS3" t="str">
         <v>21180</v>
       </c>
-      <c r="CR3" t="str">
+      <c r="CT3" t="str">
         <v>601</v>
       </c>
-      <c r="CS3" t="str">
+      <c r="CU3" t="str">
         <v>865.61</v>
       </c>
-      <c r="CT3" t="str">
+      <c r="CV3" t="str">
         <v>MT_419846.1</v>
       </c>
-      <c r="CU3" t="str">
+      <c r="CW3" t="str">
         <v>SARS-CoV-2_MT3989</v>
       </c>
-      <c r="CV3" t="str">
+      <c r="CX3" t="str">
         <v>CASAVA v. 1.8.2</v>
       </c>
-      <c r="CW3" t="str">
+      <c r="CY3" t="str">
         <v>SARS-CoV-2_MT3989.fasta</v>
       </c>
-      <c r="CX3" t="str">
+      <c r="CZ3" t="str">
         <v>/Users/Jacqueline/Desktop/Work/Seq/Consensus/</v>
       </c>
-      <c r="CY3" t="str">
+      <c r="DA3" t="str">
         <v>Timor-Leste860_2020-02_Annotation-Features.tbl</v>
       </c>
-      <c r="CZ3" t="str">
+      <c r="DB3" t="str">
         <v>Whole-exome-sequencing-and-bioinformatics-analysis-jhscj6e</v>
       </c>
-      <c r="DA3" t="str">
+      <c r="DC3" t="str">
         <v>nsp12 (RdRp)</v>
       </c>
-      <c r="DB3" t="str">
+      <c r="DD3" t="str">
         <v>Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) RdRp nested RT-PCR V.2</v>
       </c>
-      <c r="DC3" t="str">
+      <c r="DE3" t="str">
         <v>13</v>
       </c>
-      <c r="DD3" t="str">
+      <c r="DF3" t="str">
         <v>ORF7b (ns7b)</v>
       </c>
-      <c r="DE3" t="str">
+      <c r="DG3" t="str">
         <v>SARS-CoV-2 RT-PCR ORF7b 2020 (Wuhan-ORF1ab; 2019-nCoV-related test version 0.3.0</v>
       </c>
-      <c r="DF3" t="str">
+      <c r="DH3" t="str">
         <v>6</v>
       </c>
-      <c r="DG3" t="str">
+      <c r="DI3" t="str">
         <v>Diana Tucker, Ashley McIntyre, Sandra Smith, Christopher Brown, Robert North, Christopher Green</v>
       </c>
-      <c r="DH3" t="str">
-        <v>DataHarmonizer: v0.13.3</v>
+      <c r="DJ3" t="str">
+        <v>DataHarmonizer provenance: v0.13.7</v>
       </c>
     </row>
     <row r="4">
@@ -1468,268 +1486,274 @@
         <v>Surveillance testing</v>
       </c>
       <c r="Y4" t="str">
+        <v>The sample was collected to investigate the prevalence of variants associated with mink-to-human transmission in Canada.</v>
+      </c>
+      <c r="Z4" t="str">
         <v>Swab</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="AA4" t="str">
         <v>Convalescent</v>
       </c>
-      <c r="AA4" t="str">
+      <c r="AB4" t="str">
         <v>Missing</v>
       </c>
-      <c r="AB4" t="str">
+      <c r="AC4" t="str">
         <v>Anus</v>
       </c>
-      <c r="AC4" t="str">
+      <c r="AD4" t="str">
         <v>Feces</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="AE4" t="str">
         <v>N95 mask</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AF4" t="str">
         <v>Clinical assessment centre</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AG4" t="str">
         <v>Fibrobronchoscope Brush</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="AH4" t="str">
         <v>Air filtration</v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AI4" t="str">
         <v>Shanghai Bio-Germ Medical Technology Co Ltd</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AJ4" t="str">
         <v>Specimens pooled</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AK4" t="str">
         <v>U251 cell line</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AL4" t="str">
         <v>22</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AM4" t="str">
         <v>serial passage in heterologous hosts</v>
       </c>
-      <c r="AM4" t="str">
+      <c r="AN4" t="str">
         <v>RNA (ribo-depleted)</v>
       </c>
-      <c r="AN4" t="str">
+      <c r="AO4" t="str">
         <v>Chicken</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="AP4" t="str">
         <v>Gallus gallus</v>
       </c>
-      <c r="AP4" t="str">
+      <c r="AQ4" t="str">
         <v>Not Collected</v>
       </c>
-      <c r="AQ4" t="str">
+      <c r="AR4" t="str">
         <v>Not Provided</v>
       </c>
-      <c r="AR4" t="str">
+      <c r="AS4" t="str">
         <v>Stable</v>
       </c>
-      <c r="AS4" t="str">
+      <c r="AT4" t="str">
         <v>Missing</v>
       </c>
-      <c r="AT4" t="str">
+      <c r="AU4" t="str">
         <v>89</v>
       </c>
-      <c r="AU4" t="str">
+      <c r="AV4" t="str">
         <v>year</v>
       </c>
-      <c r="AV4" t="str">
+      <c r="AW4" t="str">
         <v>80 - 89</v>
       </c>
-      <c r="AW4" t="str">
+      <c r="AX4" t="str">
         <v>Non-binary gender</v>
       </c>
-      <c r="AX4" t="str">
+      <c r="AY4" t="str">
         <v>Bosnia and Herzegovina</v>
       </c>
-      <c r="AY4" t="str">
+      <c r="AZ4" t="str">
         <v>rblyp6</v>
       </c>
-      <c r="AZ4" t="str">
+      <c r="BA4" t="str">
         <v>2020-03-08</v>
       </c>
-      <c r="BA4" t="str">
+      <c r="BB4" t="str">
         <v>Confusion; Cough; Pharyngitis (sore throat)</v>
       </c>
-      <c r="BB4" t="str">
+      <c r="BC4" t="str">
         <v>Bone marrow failure; Metastatic disease; Cardiac disease</v>
       </c>
-      <c r="BC4" t="str">
+      <c r="BD4" t="str">
         <v>Kawasaki disease</v>
       </c>
-      <c r="BD4" t="str">
+      <c r="BE4" t="str">
         <v>Japan</v>
       </c>
-      <c r="BE4" t="str">
+      <c r="BF4" t="str">
         <v>Montreal</v>
       </c>
-      <c r="BF4" t="str">
+      <c r="BG4" t="str">
         <v>Quebec</v>
       </c>
-      <c r="BG4" t="str">
+      <c r="BH4" t="str">
         <v>Canada</v>
       </c>
-      <c r="BH4" t="str">
+      <c r="BI4" t="str">
         <v>2020-05-24</v>
       </c>
-      <c r="BI4" t="str">
+      <c r="BJ4" t="str">
         <v>2020-05-02</v>
       </c>
-      <c r="BJ4" t="str">
+      <c r="BK4" t="str">
         <v>Canada, Alberta; Japan, Tokyo</v>
       </c>
-      <c r="BK4" t="str">
+      <c r="BL4" t="str">
         <v>Community Event</v>
       </c>
-      <c r="BL4" t="str">
+      <c r="BM4" t="str">
         <v>Direct</v>
       </c>
-      <c r="BM4" t="str">
+      <c r="BN4" t="str">
         <v>Other</v>
       </c>
-      <c r="BN4" t="str">
+      <c r="BO4" t="str">
         <v>First Nations Reserve</v>
       </c>
-      <c r="BO4" t="str">
+      <c r="BP4" t="str">
         <v>Host role - Other: Gardener</v>
       </c>
-      <c r="BP4" t="str">
+      <c r="BQ4" t="str">
         <v>Diagnostic testing</v>
       </c>
-      <c r="BQ4" t="str">
+      <c r="BR4" t="str">
+        <v>Clinical diagnostic sequencing of confirmed COVID-19 patient.</v>
+      </c>
+      <c r="BS4" t="str">
         <v>NewBrunswick-Severeacuterespiratoryvirus2-416;3</v>
       </c>
-      <c r="BR4" t="str">
+      <c r="BT4" t="str">
         <v>200</v>
       </c>
-      <c r="BS4" t="str">
+      <c r="BU4" t="str">
         <v>NEBNext Ultra II</v>
       </c>
-      <c r="BT4" t="str">
+      <c r="BV4" t="str">
         <v>5199601997</v>
       </c>
-      <c r="BU4" t="str">
+      <c r="BW4" t="str">
         <v>HiSeq X Ten</v>
       </c>
-      <c r="BV4" t="str">
+      <c r="BX4" t="str">
         <v>Seq System Protocol v. 0.1.4</v>
       </c>
-      <c r="BW4" t="str">
+      <c r="BY4" t="str">
         <v>BFX-UT_ARTIC_Illumina V 10.4</v>
       </c>
-      <c r="BX4" t="str">
+      <c r="BZ4" t="str">
         <v>BDI5MLQMCI6</v>
       </c>
-      <c r="BY4" t="str">
+      <c r="CA4" t="str">
         <v>NB_SARSCoV2-416_2020ampli.txt</v>
       </c>
-      <c r="BZ4" t="str">
+      <c r="CB4" t="str">
         <v>2020-10-20</v>
       </c>
-      <c r="CA4" t="str">
+      <c r="CC4" t="str">
         <v>Deepbinner v. 0.2.0</v>
       </c>
-      <c r="CB4" t="str">
+      <c r="CD4" t="str">
         <v>19x</v>
       </c>
-      <c r="CC4" t="str">
+      <c r="CE4" t="str">
         <v>newbrunswick-severeacuterespiratoryvirus2-41628assembly.fasta</v>
       </c>
-      <c r="CD4" t="str">
+      <c r="CF4" t="str">
         <v>Canu</v>
       </c>
-      <c r="CE4" t="str">
+      <c r="CG4" t="str">
         <v>20%</v>
       </c>
-      <c r="CF4" t="str">
+      <c r="CH4" t="str">
         <v>15x</v>
       </c>
-      <c r="CG4" t="str">
+      <c r="CI4" t="str">
         <v>NB_SARSCoV2-416_S2_L020_R1_001.fasta.gz</v>
       </c>
-      <c r="CH4" t="str">
+      <c r="CJ4" t="str">
         <v>NB_SARSCoV2-416_S2_L020_R2_001.fasta.gz</v>
       </c>
-      <c r="CI4" t="str">
+      <c r="CK4" t="str">
         <v>/Users/Robert/Downloads/unit-/where item.fastq.gz</v>
       </c>
-      <c r="CJ4" t="str">
+      <c r="CL4" t="str">
         <v>/Users/Baker/Desktop/"/town-small-consider-wife.fastq.gz</v>
       </c>
-      <c r="CK4" t="str">
+      <c r="CM4" t="str">
         <v>NB_SARSCoV2-416_2020-seq.fast5</v>
       </c>
-      <c r="CL4" t="str">
+      <c r="CN4" t="str">
         <v>/Users/Kim/Google Drive/his/local-method.fast5</v>
       </c>
-      <c r="CM4" t="str">
+      <c r="CO4" t="str">
         <v>NB_SARSCoV2-416_2020-seq.fasta</v>
       </c>
-      <c r="CN4" t="str">
+      <c r="CP4" t="str">
         <v>/Users/Stephanie/Downloads/NB_SARSCoV2-416_2020-seq.fasta</v>
       </c>
-      <c r="CO4" t="str">
+      <c r="CQ4" t="str">
         <v>219669</v>
       </c>
-      <c r="CP4" t="str">
+      <c r="CR4" t="str">
         <v>3787</v>
       </c>
-      <c r="CQ4" t="str">
+      <c r="CS4" t="str">
         <v>12664</v>
       </c>
-      <c r="CR4" t="str">
+      <c r="CT4" t="str">
         <v>1214</v>
       </c>
-      <c r="CS4" t="str">
+      <c r="CU4" t="str">
         <v>831.4</v>
       </c>
-      <c r="CT4" t="str">
+      <c r="CV4" t="str">
         <v>NC_045512.1</v>
       </c>
-      <c r="CU4" t="str">
+      <c r="CW4" t="str">
         <v>ConsensusSeq_U0K724</v>
       </c>
-      <c r="CV4" t="str">
+      <c r="CX4" t="str">
         <v>Carthagene v. 1.2</v>
       </c>
-      <c r="CW4" t="str">
+      <c r="CY4" t="str">
         <v>ConsensusSeq_U0K724.fasta</v>
       </c>
-      <c r="CX4" t="str">
+      <c r="CZ4" t="str">
         <v>/Users/Haley/Google Drive/ConsensusSeq_U0K724.fasta</v>
       </c>
-      <c r="CY4" t="str">
+      <c r="DA4" t="str">
         <v>NB_SARSCoV2-416_2020-seq-AFT.tbl</v>
       </c>
-      <c r="CZ4" t="str">
+      <c r="DB4" t="str">
         <v>Assessing sequence quality in galaxytrakr v 1.2</v>
       </c>
-      <c r="DA4" t="str">
+      <c r="DC4" t="str">
         <v>ORF7a</v>
       </c>
-      <c r="DB4" t="str">
+      <c r="DD4" t="str">
         <v>AllTheTestingPCRing-orf7a v. 2</v>
       </c>
-      <c r="DC4" t="str">
+      <c r="DE4" t="str">
         <v>37</v>
       </c>
-      <c r="DD4" t="str">
+      <c r="DF4" t="str">
         <v>Spike (orf2)</v>
       </c>
-      <c r="DE4" t="str">
+      <c r="DG4" t="str">
         <v>2019-nCoV ORF2-gene-v.10</v>
       </c>
-      <c r="DF4" t="str">
+      <c r="DH4" t="str">
         <v>36</v>
       </c>
-      <c r="DG4" t="str">
+      <c r="DI4" t="str">
         <v>Clyde D. Flores, Tami L. Logan, Amelia M. Foster</v>
       </c>
-      <c r="DH4" t="str">
-        <v>DataHarmonizer: v0.13.3</v>
+      <c r="DJ4" t="str">
+        <v>DataHarmonizer provenance: v0.13.7</v>
       </c>
     </row>
     <row r="5">
@@ -1806,268 +1830,274 @@
         <v>Missing</v>
       </c>
       <c r="Y5" t="str">
+        <v>Missing</v>
+      </c>
+      <c r="Z5" t="str">
         <v>mRNA (cDNA)</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AA5" t="str">
         <v>Convalescent</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="AB5" t="str">
         <v>Fluid</v>
       </c>
-      <c r="AB5" t="str">
+      <c r="AC5" t="str">
         <v>Esophagus</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AD5" t="str">
         <v>Sputum</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AE5" t="str">
         <v>Hospital gown</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AF5" t="str">
         <v>School</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AG5" t="str">
         <v>Needle</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AH5" t="str">
         <v>Lumbar Puncture</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AI5" t="str">
         <v>QIAstat-Dx Respiratory SARS-CoV-2 v. 1</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AJ5" t="str">
         <v>RNA re-extraction (post RT-PCR)</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AK5" t="str">
         <v>293/ACE2 cell line</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AL5" t="str">
         <v>8</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AM5" t="str">
         <v>in vivo, TCID</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="AN5" t="str">
         <v>RNA (total)</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="AO5" t="str">
         <v>Human</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="AP5" t="str">
         <v>Homo sapiens</v>
       </c>
-      <c r="AP5" t="str">
+      <c r="AQ5" t="str">
         <v>Recovered</v>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AR5" t="str">
         <v>Hospitalized</v>
       </c>
-      <c r="AR5" t="str">
+      <c r="AS5" t="str">
         <v>Deceased</v>
       </c>
-      <c r="AS5" t="str">
+      <c r="AT5" t="str">
         <v>COVID-19</v>
       </c>
-      <c r="AT5" t="str">
+      <c r="AU5" t="str">
         <v>61</v>
       </c>
-      <c r="AU5" t="str">
+      <c r="AV5" t="str">
         <v>year</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="AW5" t="str">
         <v>60 - 69</v>
       </c>
-      <c r="AW5" t="str">
+      <c r="AX5" t="str">
         <v>Undeclared</v>
       </c>
-      <c r="AX5" t="str">
+      <c r="AY5" t="str">
         <v>Kingman Reef</v>
       </c>
-      <c r="AY5" t="str">
+      <c r="AZ5" t="str">
         <v>GeV:6</v>
       </c>
-      <c r="AZ5" t="str">
+      <c r="BA5" t="str">
         <v>2020-01-10</v>
       </c>
-      <c r="BA5" t="str">
+      <c r="BB5" t="str">
         <v>Coma; Dyspnea (breathing difficulty); Rhinorrhea (runny nose)</v>
       </c>
-      <c r="BB5" t="str">
+      <c r="BC5" t="str">
         <v>Anemia</v>
       </c>
-      <c r="BC5" t="str">
+      <c r="BD5" t="str">
         <v>Abnormal blood oxygen level</v>
       </c>
-      <c r="BD5" t="str">
+      <c r="BE5" t="str">
         <v>Canada</v>
-      </c>
-      <c r="BE5" t="str">
-        <v>Dublin</v>
       </c>
       <c r="BF5" t="str">
         <v>Dublin</v>
       </c>
       <c r="BG5" t="str">
+        <v>Dublin</v>
+      </c>
+      <c r="BH5" t="str">
         <v>Ireland</v>
       </c>
-      <c r="BH5" t="str">
+      <c r="BI5" t="str">
         <v>2020-10-15</v>
       </c>
-      <c r="BI5" t="str">
+      <c r="BJ5" t="str">
         <v>2020-10-30</v>
       </c>
-      <c r="BJ5" t="str">
+      <c r="BK5" t="str">
         <v>Canada, New Brunswick</v>
       </c>
-      <c r="BK5" t="str">
+      <c r="BL5" t="str">
         <v>Missing</v>
       </c>
-      <c r="BL5" t="str">
+      <c r="BM5" t="str">
         <v>Direct</v>
       </c>
-      <c r="BM5" t="str">
+      <c r="BN5" t="str">
         <v>Administrator</v>
       </c>
-      <c r="BN5" t="str">
+      <c r="BO5" t="str">
         <v>Daycare</v>
       </c>
-      <c r="BO5" t="str">
+      <c r="BP5" t="str">
         <v>Direct contact with COVID-19 positive visitor at place of wokr.</v>
       </c>
-      <c r="BP5" t="str">
+      <c r="BQ5" t="str">
         <v>Research</v>
       </c>
-      <c r="BQ5" t="str">
+      <c r="BR5" t="str">
+        <v>The sample was sequenced to investigate the differences in lineages circulating in Canada during the spring and fall waves of the pandemic.</v>
+      </c>
+      <c r="BS5" t="str">
         <v>ABC-6543211</v>
       </c>
-      <c r="BR5" t="str">
+      <c r="BT5" t="str">
         <v>260</v>
       </c>
-      <c r="BS5" t="str">
+      <c r="BU5" t="str">
         <v>NEBNext Ultra I</v>
       </c>
-      <c r="BT5" t="str">
+      <c r="BV5" t="str">
         <v>6476849764</v>
       </c>
-      <c r="BU5" t="str">
+      <c r="BW5" t="str">
         <v>Illumina Genome Analyzer II</v>
       </c>
-      <c r="BV5" t="str">
+      <c r="BX5" t="str">
         <v>Super Duper Prot. v.1.9</v>
       </c>
-      <c r="BW5" t="str">
+      <c r="BY5" t="str">
         <v>ARTIC Network</v>
       </c>
-      <c r="BX5" t="str">
+      <c r="BZ5" t="str">
         <v>CO32934396</v>
       </c>
-      <c r="BY5" t="str">
+      <c r="CA5" t="str">
         <v>Mali_RmYN02_eaqr-amplicon.txt</v>
       </c>
-      <c r="BZ5" t="str">
+      <c r="CB5" t="str">
         <v>2020-08-31</v>
       </c>
-      <c r="CA5" t="str">
+      <c r="CC5" t="str">
         <v>Guppy v. 0.5.1</v>
       </c>
-      <c r="CB5" t="str">
+      <c r="CD5" t="str">
         <v>116x</v>
       </c>
-      <c r="CC5" t="str">
+      <c r="CE5" t="str">
         <v>mali_rmyn02_eaqr1assembly.fasta</v>
       </c>
-      <c r="CD5" t="str">
+      <c r="CF5" t="str">
         <v>Velvet</v>
       </c>
-      <c r="CE5" t="str">
+      <c r="CG5" t="str">
         <v>83.65%</v>
       </c>
-      <c r="CF5" t="str">
+      <c r="CH5" t="str">
         <v>111x</v>
       </c>
-      <c r="CG5" t="str">
+      <c r="CI5" t="str">
         <v>Mali-RmYN02eaqr_S1_L001_R1_001.fastq.gz</v>
       </c>
-      <c r="CH5" t="str">
+      <c r="CJ5" t="str">
         <v>Mali-RmYN02eaqr_S1_L001_R2_001.fastq.gz</v>
       </c>
-      <c r="CI5" t="str">
+      <c r="CK5" t="str">
         <v>/Users/Lori/Documents/</v>
       </c>
-      <c r="CJ5" t="str">
+      <c r="CL5" t="str">
         <v>/Users/Monica Kelley/Google Drive/staff/girl.fastq.gz</v>
       </c>
-      <c r="CK5" t="str">
+      <c r="CM5" t="str">
         <v>Mali_RmYN02_eaqr-batch2b.fast5</v>
       </c>
-      <c r="CL5" t="str">
+      <c r="CN5" t="str">
         <v>/Users/Hurley/Downloads/seq/</v>
       </c>
-      <c r="CM5" t="str">
+      <c r="CO5" t="str">
         <v>Mali_RmYN02_eaqr-batch2b.fasta</v>
       </c>
-      <c r="CN5" t="str">
+      <c r="CP5" t="str">
         <v>/Users/James/Downloads/be/</v>
       </c>
-      <c r="CO5" t="str">
+      <c r="CQ5" t="str">
         <v>157621</v>
       </c>
-      <c r="CP5" t="str">
+      <c r="CR5" t="str">
         <v>6672</v>
       </c>
-      <c r="CQ5" t="str">
+      <c r="CS5" t="str">
         <v>5799</v>
       </c>
-      <c r="CR5" t="str">
+      <c r="CT5" t="str">
         <v>1887</v>
       </c>
-      <c r="CS5" t="str">
+      <c r="CU5" t="str">
         <v>419.92</v>
       </c>
-      <c r="CT5" t="str">
+      <c r="CV5" t="str">
         <v>MN988668</v>
       </c>
-      <c r="CU5" t="str">
+      <c r="CW5" t="str">
         <v>SARS-CoV-2_GWA665</v>
       </c>
-      <c r="CV5" t="str">
+      <c r="CX5" t="str">
         <v>FALCON v0.1</v>
       </c>
-      <c r="CW5" t="str">
+      <c r="CY5" t="str">
         <v>SARS-CoV-2_GWA665.fasta</v>
       </c>
-      <c r="CX5" t="str">
+      <c r="CZ5" t="str">
         <v>/Users/Watts/Documents/DEN/</v>
       </c>
-      <c r="CY5" t="str">
+      <c r="DA5" t="str">
         <v>Mali_RmYN02_eaqr-annotation.tbl</v>
       </c>
-      <c r="CZ5" t="str">
+      <c r="DB5" t="str">
         <v>Pacbio long-read sequencing 0.2.6</v>
       </c>
-      <c r="DA5" t="str">
+      <c r="DC5" t="str">
         <v>N (orf9)</v>
       </c>
-      <c r="DB5" t="str">
+      <c r="DD5" t="str">
         <v>SARS-CoV-2 real-time RT-PCR N gene 2020 (2019-nCoV-related test) V.2</v>
       </c>
-      <c r="DC5" t="str">
+      <c r="DE5" t="str">
         <v>28</v>
       </c>
-      <c r="DD5" t="str">
+      <c r="DF5" t="str">
         <v>ORF6 (ns6)</v>
       </c>
-      <c r="DE5" t="str">
+      <c r="DG5" t="str">
         <v>Withalwaysnote_V 6</v>
       </c>
-      <c r="DF5" t="str">
+      <c r="DH5" t="str">
         <v>6</v>
       </c>
-      <c r="DG5" t="str">
+      <c r="DI5" t="str">
         <v>Margaret Holder</v>
       </c>
-      <c r="DH5" t="str">
-        <v>DataHarmonizer: v0.13.3</v>
+      <c r="DJ5" t="str">
+        <v>DataHarmonizer provenance: v0.13.7</v>
       </c>
     </row>
     <row r="6">
@@ -2141,271 +2171,277 @@
         <v>Newfoundland_Bronchoscope_ISkH</v>
       </c>
       <c r="X6" t="str">
+        <v>Not Provided</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>Not Provided</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>RNA</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>Familial</v>
+      </c>
+      <c r="AB6" t="str">
         <v>Not Applicable</v>
       </c>
-      <c r="Y6" t="str">
-        <v>RNA</v>
-      </c>
-      <c r="Z6" t="str">
-        <v>Familial</v>
-      </c>
-      <c r="AA6" t="str">
-        <v>Not Applicable</v>
-      </c>
-      <c r="AB6" t="str">
+      <c r="AC6" t="str">
         <v>Eye</v>
       </c>
-      <c r="AC6" t="str">
+      <c r="AD6" t="str">
         <v>Tear</v>
       </c>
-      <c r="AD6" t="str">
+      <c r="AE6" t="str">
         <v>Tissue paper</v>
       </c>
-      <c r="AE6" t="str">
+      <c r="AF6" t="str">
         <v>Bathroom</v>
       </c>
-      <c r="AF6" t="str">
+      <c r="AG6" t="str">
         <v>Collection Cup</v>
       </c>
-      <c r="AG6" t="str">
+      <c r="AH6" t="str">
         <v>Necropsy</v>
       </c>
-      <c r="AH6" t="str">
+      <c r="AI6" t="str">
         <v>AirSurfaceEnvironmentalProtocol v123</v>
       </c>
-      <c r="AI6" t="str">
+      <c r="AJ6" t="str">
         <v>Not applicable</v>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AK6" t="str">
         <v>Missing</v>
       </c>
-      <c r="AK6" t="str">
+      <c r="AL6" t="str">
         <v>10</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AM6" t="str">
         <v>ATCC RSV protocol</v>
       </c>
-      <c r="AM6" t="str">
+      <c r="AN6" t="str">
         <v>mRNA (cDNA)</v>
       </c>
-      <c r="AN6" t="str">
+      <c r="AO6" t="str">
         <v>Human</v>
       </c>
-      <c r="AO6" t="str">
+      <c r="AP6" t="str">
         <v>Homo sapiens</v>
-      </c>
-      <c r="AP6" t="str">
-        <v>Not Applicable</v>
       </c>
       <c r="AQ6" t="str">
         <v>Not Applicable</v>
       </c>
       <c r="AR6" t="str">
+        <v>Not Applicable</v>
+      </c>
+      <c r="AS6" t="str">
         <v>Recovered</v>
       </c>
-      <c r="AS6" t="str">
+      <c r="AT6" t="str">
         <v>COVID-19</v>
       </c>
-      <c r="AT6" t="str">
+      <c r="AU6" t="str">
         <v>84</v>
       </c>
-      <c r="AU6" t="str">
+      <c r="AV6" t="str">
         <v>year</v>
       </c>
-      <c r="AV6" t="str">
+      <c r="AW6" t="str">
         <v>80 - 89</v>
       </c>
-      <c r="AW6" t="str">
+      <c r="AX6" t="str">
         <v>Male</v>
       </c>
-      <c r="AX6" t="str">
+      <c r="AY6" t="str">
         <v>Canada</v>
       </c>
-      <c r="AY6" t="str">
+      <c r="AZ6" t="str">
         <v>007-Gld-6</v>
       </c>
-      <c r="AZ6" t="str">
+      <c r="BA6" t="str">
         <v>2020-02-22</v>
       </c>
-      <c r="BA6" t="str">
+      <c r="BB6" t="str">
         <v>Confusion; Irritability; Cough</v>
       </c>
-      <c r="BB6" t="str">
+      <c r="BC6" t="str">
         <v>Hypertension (high blood pressure); Postpartum (≤6 weeks)</v>
       </c>
-      <c r="BC6" t="str">
+      <c r="BD6" t="str">
         <v>COVID-19 associated ARDS (CARDS); Cardiac injury; Cardiac arrest</v>
       </c>
-      <c r="BD6" t="str">
+      <c r="BE6" t="str">
         <v>Kosovo</v>
       </c>
-      <c r="BE6" t="str">
+      <c r="BF6" t="str">
         <v>Nice</v>
       </c>
-      <c r="BF6" t="str">
+      <c r="BG6" t="str">
         <v>Provence-Alpes-Cote d'Azur</v>
       </c>
-      <c r="BG6" t="str">
+      <c r="BH6" t="str">
         <v>France</v>
       </c>
-      <c r="BH6" t="str">
+      <c r="BI6" t="str">
         <v>2020-09-01</v>
       </c>
-      <c r="BI6" t="str">
+      <c r="BJ6" t="str">
         <v>2020-09-03</v>
       </c>
-      <c r="BJ6" t="str">
+      <c r="BK6" t="str">
         <v>Canada, Herchmer; Canada, Montreal; Kosovo, Prishtina</v>
       </c>
-      <c r="BK6" t="str">
+      <c r="BL6" t="str">
         <v>Not Applicable</v>
       </c>
-      <c r="BL6" t="str">
+      <c r="BM6" t="str">
         <v>Unknown</v>
       </c>
-      <c r="BM6" t="str">
+      <c r="BN6" t="str">
         <v>First Responder</v>
       </c>
-      <c r="BN6" t="str">
+      <c r="BO6" t="str">
         <v>Household</v>
       </c>
-      <c r="BO6" t="str">
+      <c r="BP6" t="str">
         <v>Exposure setting - visited personal home for work duty.</v>
       </c>
-      <c r="BP6" t="str">
+      <c r="BQ6" t="str">
         <v>Surveillance testing</v>
       </c>
-      <c r="BQ6" t="str">
+      <c r="BR6" t="str">
+        <v>Sequence sampled as part of an enhanced COVID-19 surveillance testing initiative that focuses on retirement homes.</v>
+      </c>
+      <c r="BS6" t="str">
         <v>Newfoundland_Bronchoscope_IskH_007</v>
       </c>
-      <c r="BR6" t="str">
+      <c r="BT6" t="str">
         <v>187</v>
       </c>
-      <c r="BS6" t="str">
+      <c r="BU6" t="str">
         <v>Collibri PS DNA Library Prep Kit</v>
       </c>
-      <c r="BT6" t="str">
+      <c r="BV6" t="str">
         <v>3821789592</v>
       </c>
-      <c r="BU6" t="str">
+      <c r="BW6" t="str">
         <v>Ion Torrent S5 XL</v>
       </c>
-      <c r="BV6" t="str">
+      <c r="BX6" t="str">
         <v>pro-seq tech protocol v. 8</v>
       </c>
-      <c r="BW6" t="str">
+      <c r="BY6" t="str">
         <v>NGS protocol v.5.0</v>
       </c>
-      <c r="BX6" t="str">
+      <c r="BZ6" t="str">
         <v>LS-2CUO1B</v>
       </c>
-      <c r="BY6" t="str">
+      <c r="CA6" t="str">
         <v>Newfoundland_B-IskH_primer_2020-03.txt</v>
       </c>
-      <c r="BZ6" t="str">
+      <c r="CB6" t="str">
         <v>2020-10-15</v>
       </c>
-      <c r="CA6" t="str">
+      <c r="CC6" t="str">
         <v>Cutadapt v. 2.10</v>
       </c>
-      <c r="CB6" t="str">
+      <c r="CD6" t="str">
         <v>127x</v>
       </c>
-      <c r="CC6" t="str">
+      <c r="CE6" t="str">
         <v>newfoundland_B-IskH_assembly.fasta</v>
       </c>
-      <c r="CD6" t="str">
+      <c r="CF6" t="str">
         <v>Canu</v>
       </c>
-      <c r="CE6" t="str">
+      <c r="CG6" t="str">
         <v>56.4%</v>
       </c>
-      <c r="CF6" t="str">
+      <c r="CH6" t="str">
         <v>62x</v>
       </c>
-      <c r="CG6" t="str">
+      <c r="CI6" t="str">
         <v>Newfoundland_B-IskH_S1_L103_R1_001.fastq.gz</v>
       </c>
-      <c r="CH6" t="str">
+      <c r="CJ6" t="str">
         <v>Newfoundland_B-IskH_S1_L103_R2_001.fastq.gz</v>
       </c>
-      <c r="CI6" t="str">
+      <c r="CK6" t="str">
         <v>/Users/Nathan Lloyd/Documents/</v>
       </c>
-      <c r="CJ6" t="str">
+      <c r="CL6" t="str">
         <v>/Users/Ricky/Google Drive/Window/</v>
       </c>
-      <c r="CK6" t="str">
+      <c r="CM6" t="str">
         <v>Newfoundland_batch03_B-IskH_2020-03.fast5</v>
       </c>
-      <c r="CL6" t="str">
+      <c r="CN6" t="str">
         <v>/Users/Douglas/Google Drive/test/Newfoundland_batch03_B-IskH_2020-03.fast5</v>
       </c>
-      <c r="CM6" t="str">
+      <c r="CO6" t="str">
         <v>Newfoundland_batch03_B-IskH_2020-03.fasta</v>
       </c>
-      <c r="CN6" t="str">
+      <c r="CP6" t="str">
         <v>/Users/Sandra English/Desktop/Theory/Newfoundland_batch03_B-IskH_2020-03.fasta</v>
       </c>
-      <c r="CO6" t="str">
+      <c r="CQ6" t="str">
         <v>336858</v>
       </c>
-      <c r="CP6" t="str">
+      <c r="CR6" t="str">
         <v>15187</v>
       </c>
-      <c r="CQ6" t="str">
+      <c r="CS6" t="str">
         <v>46431</v>
       </c>
-      <c r="CR6" t="str">
+      <c r="CT6" t="str">
         <v>4921</v>
       </c>
-      <c r="CS6" t="str">
+      <c r="CU6" t="str">
         <v>932.78</v>
       </c>
-      <c r="CT6" t="str">
+      <c r="CV6" t="str">
         <v>SRR80285415</v>
       </c>
-      <c r="CU6" t="str">
+      <c r="CW6" t="str">
         <v>Prov_NOJ678</v>
       </c>
-      <c r="CV6" t="str">
+      <c r="CX6" t="str">
         <v>iVar v. 1.0</v>
       </c>
-      <c r="CW6" t="str">
+      <c r="CY6" t="str">
         <v>Prov_NOJ678-consensus.fasta</v>
       </c>
-      <c r="CX6" t="str">
+      <c r="CZ6" t="str">
         <v>/Users/Mclean/Desktop/-/Prov_NOJ678-consensus.fasta</v>
       </c>
-      <c r="CY6" t="str">
+      <c r="DA6" t="str">
         <v>Newfoundland_anno-table_B-IskH_2020-03.tbl</v>
       </c>
-      <c r="CZ6" t="str">
+      <c r="DB6" t="str">
         <v>Ultra-deep-long-read-nanopore-sequencing-of-mock-m-x9tfr6n</v>
       </c>
-      <c r="DA6" t="str">
+      <c r="DC6" t="str">
         <v>nsp15</v>
       </c>
-      <c r="DB6" t="str">
+      <c r="DD6" t="str">
         <v>2019-nCoV nsp 15 v.10</v>
       </c>
-      <c r="DC6" t="str">
+      <c r="DE6" t="str">
         <v>31</v>
       </c>
-      <c r="DD6" t="str">
+      <c r="DF6" t="str">
         <v>ORF1ab (rep)</v>
       </c>
-      <c r="DE6" t="str">
+      <c r="DG6" t="str">
         <v>SARS-CoV-2 RT-PCR ORF1ab 2020 (Wuhan-ORF1ab; 2019-nCoV-related test V.3</v>
       </c>
-      <c r="DF6" t="str">
+      <c r="DH6" t="str">
         <v>3</v>
       </c>
-      <c r="DG6" t="str">
+      <c r="DI6" t="str">
         <v>Caleb S. Ribush, Abbie Stanley, Gaston Lafond, Cai Shao, Doreen Wexler, Bonanova Aparicio</v>
       </c>
-      <c r="DH6" t="str">
-        <v>DataHarmonizer: v0.13.3</v>
+      <c r="DJ6" t="str">
+        <v>DataHarmonizer provenance: v0.13.7</v>
       </c>
     </row>
     <row r="7">
@@ -2482,270 +2518,276 @@
         <v>Missing</v>
       </c>
       <c r="Y7" t="str">
+        <v>Missing</v>
+      </c>
+      <c r="Z7" t="str">
         <v>RNA</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="AA7" t="str">
         <v>Acute</v>
       </c>
-      <c r="AA7" t="str">
+      <c r="AB7" t="str">
         <v>Not Applicable</v>
       </c>
-      <c r="AB7" t="str">
+      <c r="AC7" t="str">
         <v>Intestine</v>
-      </c>
-      <c r="AC7" t="str">
-        <v>Missing</v>
       </c>
       <c r="AD7" t="str">
         <v>Missing</v>
       </c>
       <c r="AE7" t="str">
+        <v>Missing</v>
+      </c>
+      <c r="AF7" t="str">
         <v>Wet market</v>
       </c>
-      <c r="AF7" t="str">
+      <c r="AG7" t="str">
         <v>Blood Collection Tube</v>
       </c>
-      <c r="AG7" t="str">
+      <c r="AH7" t="str">
         <v>Necropsy</v>
       </c>
-      <c r="AH7" t="str">
+      <c r="AI7" t="str">
         <v>CanadaPubHealthLab-SARS-CoV-2_v2.3</v>
       </c>
-      <c r="AI7" t="str">
+      <c r="AJ7" t="str">
         <v>Specimens pooled</v>
       </c>
-      <c r="AJ7" t="str">
+      <c r="AK7" t="str">
         <v>EFK3B cell line</v>
       </c>
-      <c r="AK7" t="str">
+      <c r="AL7" t="str">
         <v>4</v>
       </c>
-      <c r="AL7" t="str">
+      <c r="AM7" t="str">
         <v>in vivo, serial passage</v>
       </c>
-      <c r="AM7" t="str">
+      <c r="AN7" t="str">
         <v>Not Applicable</v>
       </c>
-      <c r="AN7" t="str">
+      <c r="AO7" t="str">
         <v>Pigeon</v>
       </c>
-      <c r="AO7" t="str">
+      <c r="AP7" t="str">
         <v>Columbidae</v>
       </c>
-      <c r="AP7" t="str">
+      <c r="AQ7" t="str">
         <v>Healthy</v>
       </c>
-      <c r="AQ7" t="str">
+      <c r="AR7" t="str">
         <v>Missing</v>
       </c>
-      <c r="AR7" t="str">
+      <c r="AS7" t="str">
         <v>Deteriorating</v>
       </c>
-      <c r="AS7" t="str">
+      <c r="AT7" t="str">
         <v>Missing</v>
       </c>
-      <c r="AT7" t="str">
+      <c r="AU7" t="str">
         <v>86</v>
       </c>
-      <c r="AU7" t="str">
+      <c r="AV7" t="str">
         <v>year</v>
       </c>
-      <c r="AV7" t="str">
+      <c r="AW7" t="str">
         <v>80 - 89</v>
       </c>
-      <c r="AW7" t="str">
+      <c r="AX7" t="str">
         <v>Transgender</v>
       </c>
-      <c r="AX7" t="str">
+      <c r="AY7" t="str">
         <v>Saint Helena</v>
       </c>
-      <c r="AY7" t="str">
+      <c r="AZ7" t="str">
         <v>eEn6</v>
       </c>
-      <c r="AZ7" t="str">
+      <c r="BA7" t="str">
         <v>2020-02-13</v>
       </c>
-      <c r="BA7" t="str">
+      <c r="BB7" t="str">
         <v>Cognitive impairment; Fever</v>
       </c>
-      <c r="BB7" t="str">
+      <c r="BC7" t="str">
         <v>Lupus; Sickle cell disease</v>
       </c>
-      <c r="BD7" t="str">
+      <c r="BE7" t="str">
         <v>Canada</v>
       </c>
-      <c r="BE7" t="str">
+      <c r="BF7" t="str">
         <v>Johannesberg</v>
       </c>
-      <c r="BF7" t="str">
+      <c r="BG7" t="str">
         <v>Gauteng</v>
       </c>
-      <c r="BG7" t="str">
+      <c r="BH7" t="str">
         <v>South Africa</v>
       </c>
-      <c r="BH7" t="str">
+      <c r="BI7" t="str">
         <v>2020-08-08</v>
       </c>
-      <c r="BI7" t="str">
+      <c r="BJ7" t="str">
         <v>2020-08-31</v>
       </c>
-      <c r="BJ7" t="str">
+      <c r="BK7" t="str">
         <v>Canada, Toronto; USA, New York City</v>
       </c>
-      <c r="BK7" t="str">
+      <c r="BL7" t="str">
         <v>Convention</v>
       </c>
-      <c r="BL7" t="str">
+      <c r="BM7" t="str">
         <v>Indirect</v>
       </c>
-      <c r="BM7" t="str">
+      <c r="BN7" t="str">
         <v>Visitor</v>
       </c>
-      <c r="BN7" t="str">
+      <c r="BO7" t="str">
         <v>Community Service Centre</v>
       </c>
-      <c r="BO7" t="str">
+      <c r="BP7" t="str">
         <v>Attended convention where multiple people where later diagnosed with COVID-19.</v>
       </c>
-      <c r="BP7" t="str">
+      <c r="BQ7" t="str">
         <v>Viral passage experiment</v>
       </c>
-      <c r="BQ7" t="str">
+      <c r="BR7" t="str">
+        <v>Study selection of drug-resistant viruses.</v>
+      </c>
+      <c r="BS7" t="str">
         <v>HospitalMissing555-22</v>
       </c>
-      <c r="BR7" t="str">
+      <c r="BT7" t="str">
         <v>312</v>
       </c>
-      <c r="BS7" t="str">
+      <c r="BU7" t="str">
         <v>QIAseq FX DNA</v>
       </c>
-      <c r="BT7" t="str">
+      <c r="BV7" t="str">
         <v>8439507566</v>
       </c>
-      <c r="BU7" t="str">
+      <c r="BW7" t="str">
         <v>NextSeq 500</v>
       </c>
-      <c r="BV7" t="str">
+      <c r="BX7" t="str">
         <v>ABI xl2500 protocol v. 0.3.5</v>
       </c>
-      <c r="BW7" t="str">
+      <c r="BY7" t="str">
         <v>ABI xl2500 protocol V13</v>
       </c>
-      <c r="BX7" t="str">
+      <c r="BZ7" t="str">
         <v>YRPJ-JV6P-HVHT</v>
       </c>
-      <c r="BY7" t="str">
+      <c r="CA7" t="str">
         <v>HospitalMissing555_pcr20.txt</v>
       </c>
-      <c r="BZ7" t="str">
+      <c r="CB7" t="str">
         <v>2020-10-18</v>
       </c>
-      <c r="CA7" t="str">
+      <c r="CC7" t="str">
         <v>BBTools v. 38.82</v>
       </c>
-      <c r="CB7" t="str">
+      <c r="CD7" t="str">
         <v>129x</v>
       </c>
-      <c r="CC7" t="str">
+      <c r="CE7" t="str">
         <v>hospitalmissing55562assembly.fasta</v>
       </c>
-      <c r="CD7" t="str">
+      <c r="CF7" t="str">
         <v>SPades</v>
       </c>
-      <c r="CE7" t="str">
+      <c r="CG7" t="str">
         <v>32%</v>
       </c>
-      <c r="CF7" t="str">
+      <c r="CH7" t="str">
         <v>4x</v>
       </c>
-      <c r="CG7" t="str">
+      <c r="CI7" t="str">
         <v>HospitalMissing555_S1_L012_R1_001.fastq.gz</v>
       </c>
-      <c r="CH7" t="str">
+      <c r="CJ7" t="str">
         <v>HospitalMissing555_S1_L012_R2_001.fastq.gz</v>
       </c>
-      <c r="CI7" t="str">
+      <c r="CK7" t="str">
         <v>/Users/Henry Moss/Desktop/./</v>
       </c>
-      <c r="CJ7" t="str">
+      <c r="CL7" t="str">
         <v>/Users/Brian Cameron/Downloads/form$/light figure degree.fastq.gz</v>
       </c>
-      <c r="CK7" t="str">
+      <c r="CM7" t="str">
         <v>HospitalMissing555_sequences.fast5</v>
       </c>
-      <c r="CL7" t="str">
+      <c r="CN7" t="str">
         <v>/Users/Walter Bond/Work/</v>
       </c>
-      <c r="CM7" t="str">
+      <c r="CO7" t="str">
         <v>HospitalMissing555_sequences.fasta</v>
       </c>
-      <c r="CN7" t="str">
+      <c r="CP7" t="str">
         <v>/Users/Christopher Martinez/Desktop/administration/</v>
       </c>
-      <c r="CO7" t="str">
+      <c r="CQ7" t="str">
         <v>77793</v>
       </c>
-      <c r="CP7" t="str">
+      <c r="CR7" t="str">
         <v>14795</v>
       </c>
-      <c r="CQ7" t="str">
+      <c r="CS7" t="str">
         <v>45791</v>
       </c>
-      <c r="CR7" t="str">
+      <c r="CT7" t="str">
         <v>4145</v>
       </c>
-      <c r="CS7" t="str">
+      <c r="CU7" t="str">
         <v>652.11</v>
       </c>
-      <c r="CT7" t="str">
+      <c r="CV7" t="str">
         <v>NC_045512.1</v>
       </c>
-      <c r="CU7" t="str">
+      <c r="CW7" t="str">
         <v>ConsensusSeq_EAQ565</v>
       </c>
-      <c r="CV7" t="str">
+      <c r="CX7" t="str">
         <v>CASAVA 1.8.2</v>
       </c>
-      <c r="CW7" t="str">
+      <c r="CY7" t="str">
         <v>ConsensusSeq_EAQ565.fasta</v>
       </c>
-      <c r="CX7" t="str">
+      <c r="CZ7" t="str">
         <v>/Users/Dunlap/Downloads/refgenome/</v>
       </c>
-      <c r="CY7" t="str">
+      <c r="DA7" t="str">
         <v>HospitalMissing555_annotations.tbl</v>
       </c>
-      <c r="CZ7" t="str">
+      <c r="DB7" t="str">
         <v>Ncov-2019 sequencing protocol for illumina version 3</v>
       </c>
-      <c r="DA7" t="str">
+      <c r="DC7" t="str">
         <v>E (orf4)</v>
       </c>
-      <c r="DB7" t="str">
+      <c r="DD7" t="str">
         <v>Severe acute respiratory syndrome coronavirus 2 real-time PCR E gene 2020 v.0.1</v>
       </c>
-      <c r="DC7" t="str">
+      <c r="DE7" t="str">
         <v>4</v>
       </c>
-      <c r="DD7" t="str">
+      <c r="DF7" t="str">
         <v>ORF7a</v>
       </c>
-      <c r="DE7" t="str">
+      <c r="DG7" t="str">
         <v>2019-nCoV orf7a-v. 2</v>
       </c>
-      <c r="DF7" t="str">
+      <c r="DH7" t="str">
         <v>36</v>
       </c>
-      <c r="DG7" t="str">
+      <c r="DI7" t="str">
         <v>Thiery Couture, Xian Ch'iu, G'Kora Zanis</v>
       </c>
-      <c r="DH7" t="str">
-        <v>DataHarmonizer: v0.13.3</v>
+      <c r="DJ7" t="str">
+        <v>DataHarmonizer provenance: v0.13.7</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:DH7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:DJ7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/template/canada_covid19/exampleInput/validTestData.xlsx
+++ b/template/canada_covid19/exampleInput/validTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cmryn\Google Drive\__Documents_\__UBC\COURSES\_BIOF 599\CanCOGeN\Mock Data\DataHarmonizer-exampleInput_0.13.16 (pre-release)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damion/Documents/GitHub/DataHarmonizer/template/canada_covid19/exampleInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C354899-573E-4722-BB63-D4D90FE27C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F3366-C5BC-8046-BF49-D57901877A21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="5340" windowWidth="15816" windowHeight="10068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10200" yWindow="5340" windowWidth="15820" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>geo_loc_name (country)</t>
   </si>
   <si>
-    <t>geo_loc_name (province/territory)</t>
-  </si>
-  <si>
     <t>geo_loc_name (city)</t>
   </si>
   <si>
@@ -1892,6 +1889,9 @@
   </si>
   <si>
     <t>consensus sequence software version</t>
+  </si>
+  <si>
+    <t>geo_loc_name (state/province/territory)</t>
   </si>
 </sst>
 </file>
@@ -2271,16 +2271,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CL2" sqref="CL2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2704,2121 +2704,2121 @@
         <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="CM2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CK2" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DP2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="3" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="U4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AC4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DH4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="CQ5" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="CR5" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="CS5" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="CT5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="CU5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="CV5" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CW5" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="CX5" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="CY5" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="CZ5" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="DB5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DE5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="DF5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="DG5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="DH5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="DI5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="DJ5" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="DK5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DL5" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="DM5" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="DN5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="DO5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AD6" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AK3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AL6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AP6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AU6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="CC6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="CI6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="CK6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="CL6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM6" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CN6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="CO6" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="CP6" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="CQ6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="CR6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="CS6" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="CT6" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="CV6" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="CW6" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="CX6" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="CY6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="CZ6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="DB6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DC6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DE6" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="DF6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="DG6" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="DH6" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="DI6" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="DJ6" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="DK6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="DL6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="DM6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="DN6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="DO6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="DP6" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AS3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="Z7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="CK7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="CK3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CM3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="CN3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CO3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="CS3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="CU3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DA3" s="1" t="s">
+      <c r="CL7" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="CM7" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="CN7" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="CO7" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="CP7" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="CQ7" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="CR7" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="CT7" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="CU7" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="CV7" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="CW7" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="CX7" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="CY7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="CZ7" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="DB7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DB3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DC7" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="DD7" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="DE7" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DE3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="DH3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="DI3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DF7" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="DG7" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="DH7" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="DI7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="DJ7" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="DK7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DL7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DN7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO7" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="DP7" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="CN4" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CO4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="CQ4" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="CS4" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="CU4" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="CW4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="CX4" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="CY4" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CZ4" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="DB4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="DH4" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="DI4" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="CP5" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="CQ5" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="CR5" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="CS5" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="CU5" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="CW5" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="CX5" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="CY5" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="CZ5" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="DB5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="DG5" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="DH5" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="DI5" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="DN5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DO5" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="DP5" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="BW6" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="BY6" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="CC6" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="CF6" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="CI6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="CK6" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="CL6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="CM6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="CN6" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="CO6" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="CP6" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="CQ6" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="CR6" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="CS6" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="CT6" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="CU6" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="CV6" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="CW6" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="CX6" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="CY6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="CZ6" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="DA6" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="DB6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="DC6" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="DD6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="DE6" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="DF6" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="DG6" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="DH6" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="DI6" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="DJ6" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="DK6" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="DL6" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="DM6" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="DN6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DO6" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="DP6" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:120" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="BR7" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="CA7" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="CC7" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="CF7" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="CH7" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="CI7" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="CK7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="CL7" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="CM7" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="CN7" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="CO7" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="CP7" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="CQ7" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="CR7" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="CS7" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="CT7" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="CU7" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="CV7" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="CW7" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="CX7" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="CY7" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CZ7" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="DA7" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="DB7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="DC7" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="DD7" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="DE7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="DF7" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="DG7" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="DH7" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="DI7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="DJ7" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="DK7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DL7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DM7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DN7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DO7" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="DP7" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:DP1 A3:DP7 A2:CJ2 CM2:DP2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:DP1 A3:DP7 A2:T2 CM2:DP2 V2:CJ2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>